--- a/delete1/compoundData.xlsx
+++ b/delete1/compoundData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>严颜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孟获</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,25 +212,13 @@
     <t>孙策</t>
   </si>
   <si>
-    <t>步练师</t>
-  </si>
-  <si>
     <t>大乔</t>
   </si>
   <si>
-    <t>朱然</t>
-  </si>
-  <si>
     <t>太史慈</t>
   </si>
   <si>
-    <t>鲁肃</t>
-  </si>
-  <si>
     <t>周泰</t>
-  </si>
-  <si>
-    <t>程普</t>
   </si>
   <si>
     <t>孙策</t>
@@ -347,6 +331,9 @@
   </si>
   <si>
     <t>董卓</t>
+  </si>
+  <si>
+    <t>刘禅</t>
   </si>
 </sst>
 </file>
@@ -692,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G321"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -743,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -766,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -789,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -812,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -835,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -858,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -881,7 +868,7 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -904,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -927,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -950,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -973,7 +960,7 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -996,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1019,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1042,7 +1029,7 @@
         <v>6</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1065,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1088,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1111,553 +1098,553 @@
         <v>6</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>60112</v>
+        <v>60113</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>6</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>60113</v>
+        <v>60115</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>60114</v>
+        <v>60117</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>60115</v>
+        <v>70101</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>60116</v>
+        <v>70102</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>60117</v>
+        <v>70103</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>60118</v>
+        <v>70104</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>70101</v>
+        <v>70105</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F26">
         <v>7</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>70102</v>
+        <v>70106</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F27">
         <v>7</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>70103</v>
+        <v>70107</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F28">
         <v>7</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>70104</v>
+        <v>70108</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F29">
         <v>7</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>70105</v>
+        <v>70111</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>7</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>70106</v>
+        <v>70113</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <v>7</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>70107</v>
+        <v>70115</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F32">
         <v>7</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>70108</v>
+        <v>70117</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>7</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>70111</v>
+        <v>80101</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>70112</v>
+        <v>80102</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>70113</v>
+        <v>80103</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>70114</v>
+        <v>80104</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>70115</v>
+        <v>80105</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>70116</v>
+        <v>80106</v>
       </c>
       <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
         <v>18</v>
       </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>70117</v>
+        <v>80107</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>70118</v>
+        <v>80108</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>80101</v>
+        <v>80111</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -1668,19 +1655,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>80102</v>
+        <v>80113</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -1691,19 +1678,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>80103</v>
+        <v>80115</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>15</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>27</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -1714,19 +1701,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>80104</v>
+        <v>80117</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -1737,283 +1724,283 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>80105</v>
+        <v>90101</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>80106</v>
+        <v>90102</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>80107</v>
+        <v>90103</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>80108</v>
+        <v>90104</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>80111</v>
+        <v>90105</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>80112</v>
+        <v>90106</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51">
         <v>9</v>
       </c>
-      <c r="F51">
-        <v>8</v>
-      </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>80113</v>
+        <v>90107</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>80114</v>
+        <v>90108</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>80115</v>
+        <v>90111</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54">
         <v>9</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54">
-        <v>8</v>
-      </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>80116</v>
+        <v>90113</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>80117</v>
+        <v>90115</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>80118</v>
+        <v>90117</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>90101</v>
+        <v>100101</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -2028,7 +2015,7 @@
         <v>23</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2036,7 +2023,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>90102</v>
+        <v>100102</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -2051,7 +2038,7 @@
         <v>25</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2059,7 +2046,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>90103</v>
+        <v>100103</v>
       </c>
       <c r="B60" t="s">
         <v>28</v>
@@ -2074,7 +2061,7 @@
         <v>27</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2082,7 +2069,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>90104</v>
+        <v>100104</v>
       </c>
       <c r="B61" t="s">
         <v>30</v>
@@ -2097,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2105,7 +2092,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>90105</v>
+        <v>100105</v>
       </c>
       <c r="B62" t="s">
         <v>32</v>
@@ -2120,7 +2107,7 @@
         <v>31</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2128,7 +2115,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>90106</v>
+        <v>100106</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
@@ -2143,7 +2130,7 @@
         <v>33</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2151,7 +2138,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>90107</v>
+        <v>100107</v>
       </c>
       <c r="B64" t="s">
         <v>36</v>
@@ -2166,7 +2153,7 @@
         <v>35</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2174,7 +2161,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>90108</v>
+        <v>100108</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -2189,7 +2176,7 @@
         <v>37</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2197,375 +2184,375 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>90111</v>
+        <v>50211</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>90112</v>
+        <v>50212</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>90113</v>
+        <v>50213</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>90114</v>
+        <v>50214</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>90115</v>
+        <v>50215</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>90116</v>
+        <v>50216</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F71">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>90117</v>
+        <v>50217</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>90118</v>
+        <v>50218</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C73">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>100101</v>
+        <v>60201</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>100102</v>
+        <v>60202</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>100103</v>
+        <v>60203</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>100104</v>
+        <v>60204</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>100105</v>
+        <v>60205</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>100106</v>
+        <v>60206</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>100107</v>
+        <v>60207</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C80">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>100108</v>
+        <v>60208</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>50211</v>
+        <v>60211</v>
       </c>
       <c r="B82" t="s">
         <v>39</v>
@@ -2580,915 +2567,915 @@
         <v>39</v>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G82">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>50212</v>
+        <v>60213</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G83">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>50213</v>
+        <v>60215</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C84">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G84">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>50214</v>
+        <v>60217</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C85">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G85">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>50215</v>
+        <v>70201</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C86">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G86">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>50216</v>
+        <v>70202</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C87">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G87">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>50217</v>
+        <v>70203</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C88">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G88">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>50218</v>
+        <v>70204</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C89">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G89">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>60201</v>
+        <v>70205</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C90">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G90">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>60202</v>
+        <v>70206</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C91">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G91">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>60203</v>
+        <v>70207</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C92">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>60204</v>
+        <v>70208</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C93">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G93">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>60205</v>
+        <v>70211</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C94">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G94">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>60206</v>
+        <v>70213</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C95">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G95">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>60207</v>
+        <v>70215</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C96">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G96">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>60208</v>
+        <v>70217</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C97">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>60211</v>
+        <v>80201</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C98">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G98">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>60212</v>
+        <v>80202</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C99">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G99">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>60213</v>
+        <v>80203</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C100">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G100">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>60214</v>
+        <v>80204</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C101">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F101">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G101">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>60215</v>
+        <v>80205</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C102">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G102">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>60216</v>
+        <v>80206</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C103">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F103">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G103">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>60217</v>
+        <v>80207</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C104">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D104">
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G104">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>60218</v>
+        <v>80208</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C105">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D105">
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F105">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G105">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>70201</v>
+        <v>80211</v>
       </c>
       <c r="B106" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C106">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D106">
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>70202</v>
+        <v>80213</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C107">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D107">
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>70203</v>
+        <v>80215</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C108">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>70204</v>
+        <v>80217</v>
       </c>
       <c r="B109" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C109">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F109">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>70205</v>
+        <v>90201</v>
       </c>
       <c r="B110" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C110">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F110">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>70206</v>
+        <v>90202</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C111">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D111">
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G111">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>70207</v>
+        <v>90203</v>
       </c>
       <c r="B112" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C112">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F112">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G112">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>70208</v>
+        <v>90204</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C113">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G113">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>70211</v>
+        <v>90205</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C114">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>70212</v>
+        <v>90206</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C115">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F115">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>70213</v>
+        <v>90207</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C116">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F116">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>70214</v>
+        <v>90208</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C117">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F117">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>70215</v>
+        <v>90211</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C118">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D118">
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F118">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>70216</v>
+        <v>90213</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C119">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>70217</v>
+        <v>90215</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C120">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D120">
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F120">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G120">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>70218</v>
+        <v>90217</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C121">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G121">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>80201</v>
+        <v>100201</v>
       </c>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C122">
         <v>33</v>
@@ -3497,21 +3484,21 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F122">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>80202</v>
+        <v>100202</v>
       </c>
       <c r="B123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C123">
         <v>34</v>
@@ -3520,21 +3507,21 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F123">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>80203</v>
+        <v>100203</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C124">
         <v>35</v>
@@ -3543,21 +3530,21 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F124">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>80204</v>
+        <v>100204</v>
       </c>
       <c r="B125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C125">
         <v>36</v>
@@ -3566,21 +3553,21 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F125">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>80205</v>
+        <v>100205</v>
       </c>
       <c r="B126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C126">
         <v>37</v>
@@ -3589,21 +3576,21 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F126">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>80206</v>
+        <v>100206</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C127">
         <v>38</v>
@@ -3612,21 +3599,21 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F127">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>80207</v>
+        <v>100207</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C128">
         <v>39</v>
@@ -3635,21 +3622,21 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F128">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>80208</v>
+        <v>100208</v>
       </c>
       <c r="B129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C129">
         <v>40</v>
@@ -3658,1309 +3645,1309 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F129">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>80211</v>
+        <v>50311</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C130">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F130">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>80212</v>
+        <v>50312</v>
       </c>
       <c r="B131" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C131">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F131">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>80213</v>
+        <v>50313</v>
       </c>
       <c r="B132" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C132">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F132">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>80214</v>
+        <v>50314</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C133">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F133">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>80215</v>
+        <v>50315</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C134">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F134">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>80216</v>
+        <v>50316</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C135">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F135">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>80217</v>
+        <v>50317</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C136">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F136">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>80218</v>
+        <v>50318</v>
       </c>
       <c r="B137" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C137">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F137">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>90201</v>
+        <v>60301</v>
       </c>
       <c r="B138" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C138">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F138">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>90202</v>
+        <v>60302</v>
       </c>
       <c r="B139" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C139">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F139">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>90203</v>
+        <v>60303</v>
       </c>
       <c r="B140" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C140">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F140">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>90204</v>
+        <v>60304</v>
       </c>
       <c r="B141" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C141">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F141">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>90205</v>
+        <v>60305</v>
       </c>
       <c r="B142" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C142">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F142">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>90206</v>
+        <v>60306</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C143">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F143">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>90207</v>
+        <v>60307</v>
       </c>
       <c r="B144" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C144">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F144">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>90208</v>
+        <v>60308</v>
       </c>
       <c r="B145" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C145">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F145">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146">
-        <v>90211</v>
+        <v>60311</v>
       </c>
       <c r="B146" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C146">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F146">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>90212</v>
+        <v>60313</v>
       </c>
       <c r="B147" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C147">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F147">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148">
-        <v>90213</v>
+        <v>60315</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C148">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F148">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149">
-        <v>90214</v>
+        <v>60317</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C149">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F149">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150">
-        <v>90215</v>
+        <v>70301</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C150">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F150">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151">
-        <v>90216</v>
+        <v>70302</v>
       </c>
       <c r="B151" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C151">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F151">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152">
-        <v>90217</v>
+        <v>70303</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C152">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F152">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153">
-        <v>90218</v>
+        <v>70304</v>
       </c>
       <c r="B153" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C153">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F153">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154">
-        <v>100201</v>
+        <v>70305</v>
       </c>
       <c r="B154" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C154">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155">
-        <v>100202</v>
+        <v>70306</v>
       </c>
       <c r="B155" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C155">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F155">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156">
-        <v>100203</v>
+        <v>70307</v>
       </c>
       <c r="B156" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C156">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F156">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157">
-        <v>100204</v>
+        <v>70308</v>
       </c>
       <c r="B157" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C157">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F157">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158">
-        <v>100205</v>
+        <v>70311</v>
       </c>
       <c r="B158" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C158">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F158">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159">
-        <v>100206</v>
+        <v>70313</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C159">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F159">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160">
-        <v>100207</v>
+        <v>70315</v>
       </c>
       <c r="B160" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C160">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A161">
-        <v>100208</v>
+        <v>70317</v>
       </c>
       <c r="B161" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C161">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A162">
-        <v>50311</v>
+        <v>80301</v>
       </c>
       <c r="B162" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C162">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D162">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F162">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G162">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163">
-        <v>50312</v>
+        <v>80302</v>
       </c>
       <c r="B163" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C163">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D163">
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F163">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G163">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164">
-        <v>50313</v>
+        <v>80303</v>
       </c>
       <c r="B164" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C164">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D164">
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F164">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G164">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165">
-        <v>50314</v>
+        <v>80304</v>
       </c>
       <c r="B165" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C165">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D165">
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F165">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G165">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A166">
-        <v>50315</v>
+        <v>80305</v>
       </c>
       <c r="B166" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C166">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D166">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F166">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G166">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A167">
-        <v>50316</v>
+        <v>80306</v>
       </c>
       <c r="B167" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C167">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D167">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F167">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G167">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A168">
-        <v>50317</v>
+        <v>80307</v>
       </c>
       <c r="B168" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C168">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D168">
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F168">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G168">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169">
-        <v>50318</v>
+        <v>80308</v>
       </c>
       <c r="B169" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C169">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D169">
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F169">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G169">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A170">
-        <v>60301</v>
+        <v>80311</v>
       </c>
       <c r="B170" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C170">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D170">
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F170">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G170">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A171">
-        <v>60302</v>
+        <v>80313</v>
       </c>
       <c r="B171" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C171">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D171">
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F171">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G171">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A172">
-        <v>60303</v>
+        <v>80315</v>
       </c>
       <c r="B172" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C172">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D172">
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F172">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G172">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A173">
-        <v>60304</v>
+        <v>80317</v>
       </c>
       <c r="B173" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C173">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D173">
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F173">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G173">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174">
-        <v>60305</v>
+        <v>90301</v>
       </c>
       <c r="B174" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C174">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F174">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G174">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175">
-        <v>60306</v>
+        <v>90302</v>
       </c>
       <c r="B175" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C175">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D175">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F175">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G175">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A176">
-        <v>60307</v>
+        <v>90303</v>
       </c>
       <c r="B176" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C176">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D176">
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F176">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G176">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177">
-        <v>60308</v>
+        <v>90304</v>
       </c>
       <c r="B177" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C177">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D177">
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F177">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G177">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178">
-        <v>60311</v>
+        <v>90305</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C178">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D178">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F178">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G178">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179">
-        <v>60312</v>
+        <v>90306</v>
       </c>
       <c r="B179" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C179">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D179">
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F179">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G179">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180">
-        <v>60313</v>
+        <v>90307</v>
       </c>
       <c r="B180" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C180">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D180">
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F180">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G180">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181">
-        <v>60314</v>
+        <v>90308</v>
       </c>
       <c r="B181" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C181">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D181">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F181">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G181">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182">
-        <v>60315</v>
+        <v>90311</v>
       </c>
       <c r="B182" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C182">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F182">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G182">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183">
-        <v>60316</v>
+        <v>90313</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C183">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F183">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G183">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184">
-        <v>60317</v>
+        <v>90315</v>
       </c>
       <c r="B184" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C184">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D184">
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F184">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G184">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185">
-        <v>60318</v>
+        <v>90317</v>
       </c>
       <c r="B185" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C185">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D185">
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F185">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G185">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186">
-        <v>70301</v>
+        <v>100301</v>
       </c>
       <c r="B186" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C186">
         <v>53</v>
@@ -4969,21 +4956,21 @@
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F186">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G186">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187">
-        <v>70302</v>
+        <v>100302</v>
       </c>
       <c r="B187" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C187">
         <v>54</v>
@@ -4992,21 +4979,21 @@
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F187">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G187">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188">
-        <v>70303</v>
+        <v>100303</v>
       </c>
       <c r="B188" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C188">
         <v>55</v>
@@ -5015,21 +5002,21 @@
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F188">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G188">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189">
-        <v>70304</v>
+        <v>100304</v>
       </c>
       <c r="B189" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C189">
         <v>56</v>
@@ -5038,21 +5025,21 @@
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F189">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G189">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190">
-        <v>70305</v>
+        <v>100305</v>
       </c>
       <c r="B190" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C190">
         <v>57</v>
@@ -5061,21 +5048,21 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F190">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191">
-        <v>70306</v>
+        <v>100306</v>
       </c>
       <c r="B191" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C191">
         <v>58</v>
@@ -5084,21 +5071,21 @@
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F191">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192">
-        <v>70307</v>
+        <v>100307</v>
       </c>
       <c r="B192" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C192">
         <v>59</v>
@@ -5107,21 +5094,21 @@
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F192">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G192">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193">
-        <v>70308</v>
+        <v>100308</v>
       </c>
       <c r="B193" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C193">
         <v>60</v>
@@ -5130,1045 +5117,1045 @@
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F193">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G193">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194">
-        <v>70311</v>
+        <v>50411</v>
       </c>
       <c r="B194" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C194">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E194" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F194">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G194">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195">
-        <v>70312</v>
+        <v>50412</v>
       </c>
       <c r="B195" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C195">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F195">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G195">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196">
-        <v>70313</v>
+        <v>50413</v>
       </c>
       <c r="B196" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C196">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F196">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G196">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197">
-        <v>70314</v>
+        <v>50414</v>
       </c>
       <c r="B197" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C197">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E197" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F197">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G197">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198">
-        <v>70315</v>
+        <v>50415</v>
       </c>
       <c r="B198" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C198">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E198" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F198">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G198">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199">
-        <v>70316</v>
+        <v>50416</v>
       </c>
       <c r="B199" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C199">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E199" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F199">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G199">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200">
-        <v>70317</v>
+        <v>50417</v>
       </c>
       <c r="B200" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C200">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G200">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201">
-        <v>70318</v>
+        <v>50418</v>
       </c>
       <c r="B201" t="s">
+        <v>81</v>
+      </c>
+      <c r="C201">
+        <v>72</v>
+      </c>
+      <c r="D201">
+        <v>4</v>
+      </c>
+      <c r="E201" t="s">
+        <v>81</v>
+      </c>
+      <c r="F201">
+        <v>5</v>
+      </c>
+      <c r="G201">
         <v>62</v>
-      </c>
-      <c r="C201">
-        <v>52</v>
-      </c>
-      <c r="D201">
-        <v>3</v>
-      </c>
-      <c r="E201" t="s">
-        <v>62</v>
-      </c>
-      <c r="F201">
-        <v>7</v>
-      </c>
-      <c r="G201">
-        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202">
-        <v>80301</v>
+        <v>60401</v>
       </c>
       <c r="B202" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C202">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E202" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F202">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203">
-        <v>80302</v>
+        <v>60402</v>
       </c>
       <c r="B203" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C203">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F203">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G203">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204">
-        <v>80303</v>
+        <v>60403</v>
       </c>
       <c r="B204" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C204">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F204">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G204">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205">
-        <v>80304</v>
+        <v>60404</v>
       </c>
       <c r="B205" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C205">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E205" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F205">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G205">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206">
-        <v>80305</v>
+        <v>60405</v>
       </c>
       <c r="B206" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C206">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E206" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F206">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G206">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207">
-        <v>80306</v>
+        <v>60406</v>
       </c>
       <c r="B207" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C207">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E207" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F207">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G207">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208">
-        <v>80307</v>
+        <v>60407</v>
       </c>
       <c r="B208" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C208">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F208">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A209">
-        <v>80308</v>
+        <v>60408</v>
       </c>
       <c r="B209" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C209">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F209">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A210">
-        <v>80311</v>
+        <v>60411</v>
       </c>
       <c r="B210" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C210">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E210" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F210">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G210">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A211">
-        <v>80312</v>
+        <v>60413</v>
       </c>
       <c r="B211" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C211">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F211">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A212">
-        <v>80313</v>
+        <v>60415</v>
       </c>
       <c r="B212" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C212">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E212" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F212">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A213">
-        <v>80314</v>
+        <v>60417</v>
       </c>
       <c r="B213" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C213">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E213" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F213">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A214">
-        <v>80315</v>
+        <v>70401</v>
       </c>
       <c r="B214" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C214">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E214" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F214">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G214">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A215">
-        <v>80316</v>
+        <v>70402</v>
       </c>
       <c r="B215" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C215">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E215" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F215">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A216">
-        <v>80317</v>
+        <v>70403</v>
       </c>
       <c r="B216" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C216">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E216" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="F216">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A217">
-        <v>80318</v>
+        <v>70404</v>
       </c>
       <c r="B217" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C217">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F217">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A218">
-        <v>90301</v>
+        <v>70405</v>
       </c>
       <c r="B218" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C218">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E218" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F218">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A219">
-        <v>90302</v>
+        <v>70406</v>
       </c>
       <c r="B219" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C219">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F219">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A220">
-        <v>90303</v>
+        <v>70407</v>
       </c>
       <c r="B220" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C220">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E220" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F220">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A221">
-        <v>90304</v>
+        <v>70408</v>
       </c>
       <c r="B221" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C221">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E221" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F221">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A222">
-        <v>90305</v>
+        <v>70411</v>
       </c>
       <c r="B222" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C222">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E222" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F222">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A223">
-        <v>90306</v>
+        <v>70413</v>
       </c>
       <c r="B223" t="s">
         <v>76</v>
       </c>
       <c r="C223">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E223" t="s">
         <v>76</v>
       </c>
       <c r="F223">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G223">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A224">
-        <v>90307</v>
+        <v>70415</v>
       </c>
       <c r="B224" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C224">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F224">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A225">
-        <v>90308</v>
+        <v>70417</v>
       </c>
       <c r="B225" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C225">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E225" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F225">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A226">
-        <v>90311</v>
+        <v>80401</v>
       </c>
       <c r="B226" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C226">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E226" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F226">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A227">
-        <v>90312</v>
+        <v>80402</v>
       </c>
       <c r="B227" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C227">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E227" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F227">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A228">
-        <v>90313</v>
+        <v>80403</v>
       </c>
       <c r="B228" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C228">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E228" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F228">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A229">
-        <v>90314</v>
+        <v>80404</v>
       </c>
       <c r="B229" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C229">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D229">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E229" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F229">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A230">
-        <v>90315</v>
+        <v>80405</v>
       </c>
       <c r="B230" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C230">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E230" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="F230">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A231">
-        <v>90316</v>
+        <v>80406</v>
       </c>
       <c r="B231" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C231">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E231" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="F231">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A232">
-        <v>90317</v>
+        <v>80407</v>
       </c>
       <c r="B232" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C232">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F232">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A233">
-        <v>90318</v>
+        <v>80408</v>
       </c>
       <c r="B233" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C233">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E233" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F233">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A234">
-        <v>100301</v>
+        <v>80411</v>
       </c>
       <c r="B234" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C234">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E234" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F234">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A235">
-        <v>100302</v>
+        <v>80413</v>
       </c>
       <c r="B235" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C235">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E235" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F235">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A236">
-        <v>100303</v>
+        <v>80415</v>
       </c>
       <c r="B236" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C236">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E236" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F236">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A237">
-        <v>100304</v>
+        <v>80417</v>
       </c>
       <c r="B237" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C237">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E237" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F237">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A238">
-        <v>100305</v>
+        <v>90401</v>
       </c>
       <c r="B238" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C238">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E238" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F238">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -6176,22 +6163,22 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A239">
-        <v>100306</v>
+        <v>90402</v>
       </c>
       <c r="B239" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C239">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E239" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F239">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -6199,22 +6186,22 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A240">
-        <v>100307</v>
+        <v>90403</v>
       </c>
       <c r="B240" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C240">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F240">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -6222,22 +6209,22 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A241">
-        <v>100308</v>
+        <v>90404</v>
       </c>
       <c r="B241" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C241">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F241">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -6245,194 +6232,194 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A242">
-        <v>50411</v>
+        <v>90405</v>
       </c>
       <c r="B242" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C242">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D242">
         <v>4</v>
       </c>
       <c r="E242" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F242">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G242">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A243">
-        <v>50412</v>
+        <v>90406</v>
       </c>
       <c r="B243" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C243">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D243">
         <v>4</v>
       </c>
       <c r="E243" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F243">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G243">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A244">
-        <v>50413</v>
+        <v>90407</v>
       </c>
       <c r="B244" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C244">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D244">
         <v>4</v>
       </c>
       <c r="E244" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F244">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G244">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A245">
-        <v>50414</v>
+        <v>90408</v>
       </c>
       <c r="B245" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C245">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D245">
         <v>4</v>
       </c>
       <c r="E245" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F245">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G245">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A246">
-        <v>50415</v>
+        <v>90411</v>
       </c>
       <c r="B246" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C246">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D246">
         <v>4</v>
       </c>
       <c r="E246" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F246">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G246">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A247">
-        <v>50416</v>
+        <v>90413</v>
       </c>
       <c r="B247" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C247">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D247">
         <v>4</v>
       </c>
       <c r="E247" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F247">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G247">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A248">
-        <v>50417</v>
+        <v>90415</v>
       </c>
       <c r="B248" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C248">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D248">
         <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F248">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G248">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A249">
-        <v>50418</v>
+        <v>90417</v>
       </c>
       <c r="B249" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C249">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D249">
         <v>4</v>
       </c>
       <c r="E249" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F249">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G249">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A250">
-        <v>60401</v>
+        <v>100401</v>
       </c>
       <c r="B250" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C250">
         <v>73</v>
@@ -6441,21 +6428,21 @@
         <v>4</v>
       </c>
       <c r="E250" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F250">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G250">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A251">
-        <v>60402</v>
+        <v>100402</v>
       </c>
       <c r="B251" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C251">
         <v>74</v>
@@ -6464,21 +6451,21 @@
         <v>4</v>
       </c>
       <c r="E251" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F251">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G251">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A252">
-        <v>60403</v>
+        <v>100403</v>
       </c>
       <c r="B252" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C252">
         <v>75</v>
@@ -6487,21 +6474,21 @@
         <v>4</v>
       </c>
       <c r="E252" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F252">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G252">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A253">
-        <v>60404</v>
+        <v>100404</v>
       </c>
       <c r="B253" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C253">
         <v>76</v>
@@ -6510,21 +6497,21 @@
         <v>4</v>
       </c>
       <c r="E253" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F253">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G253">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A254">
-        <v>60405</v>
+        <v>100405</v>
       </c>
       <c r="B254" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C254">
         <v>77</v>
@@ -6533,21 +6520,21 @@
         <v>4</v>
       </c>
       <c r="E254" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F254">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G254">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A255">
-        <v>60406</v>
+        <v>100406</v>
       </c>
       <c r="B255" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C255">
         <v>78</v>
@@ -6556,21 +6543,21 @@
         <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F255">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G255">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A256">
-        <v>60407</v>
+        <v>100407</v>
       </c>
       <c r="B256" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C256">
         <v>79</v>
@@ -6579,21 +6566,21 @@
         <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F256">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G256">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A257">
-        <v>60408</v>
+        <v>100408</v>
       </c>
       <c r="B257" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C257">
         <v>80</v>
@@ -6602,1484 +6589,12 @@
         <v>4</v>
       </c>
       <c r="E257" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F257">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G257">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A258">
-        <v>60411</v>
-      </c>
-      <c r="B258" t="s">
-        <v>79</v>
-      </c>
-      <c r="C258">
-        <v>65</v>
-      </c>
-      <c r="D258">
-        <v>4</v>
-      </c>
-      <c r="E258" t="s">
-        <v>79</v>
-      </c>
-      <c r="F258">
-        <v>6</v>
-      </c>
-      <c r="G258">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A259">
-        <v>60412</v>
-      </c>
-      <c r="B259" t="s">
-        <v>80</v>
-      </c>
-      <c r="C259">
-        <v>66</v>
-      </c>
-      <c r="D259">
-        <v>4</v>
-      </c>
-      <c r="E259" t="s">
-        <v>80</v>
-      </c>
-      <c r="F259">
-        <v>6</v>
-      </c>
-      <c r="G259">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A260">
-        <v>60413</v>
-      </c>
-      <c r="B260" t="s">
-        <v>81</v>
-      </c>
-      <c r="C260">
-        <v>67</v>
-      </c>
-      <c r="D260">
-        <v>4</v>
-      </c>
-      <c r="E260" t="s">
-        <v>81</v>
-      </c>
-      <c r="F260">
-        <v>6</v>
-      </c>
-      <c r="G260">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A261">
-        <v>60414</v>
-      </c>
-      <c r="B261" t="s">
-        <v>82</v>
-      </c>
-      <c r="C261">
-        <v>68</v>
-      </c>
-      <c r="D261">
-        <v>4</v>
-      </c>
-      <c r="E261" t="s">
-        <v>82</v>
-      </c>
-      <c r="F261">
-        <v>6</v>
-      </c>
-      <c r="G261">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A262">
-        <v>60415</v>
-      </c>
-      <c r="B262" t="s">
-        <v>83</v>
-      </c>
-      <c r="C262">
-        <v>69</v>
-      </c>
-      <c r="D262">
-        <v>4</v>
-      </c>
-      <c r="E262" t="s">
-        <v>83</v>
-      </c>
-      <c r="F262">
-        <v>6</v>
-      </c>
-      <c r="G262">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A263">
-        <v>60416</v>
-      </c>
-      <c r="B263" t="s">
-        <v>84</v>
-      </c>
-      <c r="C263">
-        <v>70</v>
-      </c>
-      <c r="D263">
-        <v>4</v>
-      </c>
-      <c r="E263" t="s">
-        <v>84</v>
-      </c>
-      <c r="F263">
-        <v>6</v>
-      </c>
-      <c r="G263">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A264">
-        <v>60417</v>
-      </c>
-      <c r="B264" t="s">
-        <v>85</v>
-      </c>
-      <c r="C264">
-        <v>71</v>
-      </c>
-      <c r="D264">
-        <v>4</v>
-      </c>
-      <c r="E264" t="s">
-        <v>85</v>
-      </c>
-      <c r="F264">
-        <v>6</v>
-      </c>
-      <c r="G264">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A265">
-        <v>60418</v>
-      </c>
-      <c r="B265" t="s">
-        <v>86</v>
-      </c>
-      <c r="C265">
-        <v>72</v>
-      </c>
-      <c r="D265">
-        <v>4</v>
-      </c>
-      <c r="E265" t="s">
-        <v>86</v>
-      </c>
-      <c r="F265">
-        <v>6</v>
-      </c>
-      <c r="G265">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A266">
-        <v>70401</v>
-      </c>
-      <c r="B266" t="s">
-        <v>87</v>
-      </c>
-      <c r="C266">
-        <v>73</v>
-      </c>
-      <c r="D266">
-        <v>4</v>
-      </c>
-      <c r="E266" t="s">
-        <v>87</v>
-      </c>
-      <c r="F266">
-        <v>7</v>
-      </c>
-      <c r="G266">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A267">
-        <v>70402</v>
-      </c>
-      <c r="B267" t="s">
-        <v>88</v>
-      </c>
-      <c r="C267">
-        <v>74</v>
-      </c>
-      <c r="D267">
-        <v>4</v>
-      </c>
-      <c r="E267" t="s">
-        <v>88</v>
-      </c>
-      <c r="F267">
-        <v>7</v>
-      </c>
-      <c r="G267">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A268">
-        <v>70403</v>
-      </c>
-      <c r="B268" t="s">
-        <v>89</v>
-      </c>
-      <c r="C268">
-        <v>75</v>
-      </c>
-      <c r="D268">
-        <v>4</v>
-      </c>
-      <c r="E268" t="s">
-        <v>89</v>
-      </c>
-      <c r="F268">
-        <v>7</v>
-      </c>
-      <c r="G268">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A269">
-        <v>70404</v>
-      </c>
-      <c r="B269" t="s">
-        <v>90</v>
-      </c>
-      <c r="C269">
-        <v>76</v>
-      </c>
-      <c r="D269">
-        <v>4</v>
-      </c>
-      <c r="E269" t="s">
-        <v>90</v>
-      </c>
-      <c r="F269">
-        <v>7</v>
-      </c>
-      <c r="G269">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A270">
-        <v>70405</v>
-      </c>
-      <c r="B270" t="s">
-        <v>91</v>
-      </c>
-      <c r="C270">
-        <v>77</v>
-      </c>
-      <c r="D270">
-        <v>4</v>
-      </c>
-      <c r="E270" t="s">
-        <v>91</v>
-      </c>
-      <c r="F270">
-        <v>7</v>
-      </c>
-      <c r="G270">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A271">
-        <v>70406</v>
-      </c>
-      <c r="B271" t="s">
-        <v>92</v>
-      </c>
-      <c r="C271">
-        <v>78</v>
-      </c>
-      <c r="D271">
-        <v>4</v>
-      </c>
-      <c r="E271" t="s">
-        <v>92</v>
-      </c>
-      <c r="F271">
-        <v>7</v>
-      </c>
-      <c r="G271">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A272">
-        <v>70407</v>
-      </c>
-      <c r="B272" t="s">
-        <v>93</v>
-      </c>
-      <c r="C272">
-        <v>79</v>
-      </c>
-      <c r="D272">
-        <v>4</v>
-      </c>
-      <c r="E272" t="s">
-        <v>93</v>
-      </c>
-      <c r="F272">
-        <v>7</v>
-      </c>
-      <c r="G272">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A273">
-        <v>70408</v>
-      </c>
-      <c r="B273" t="s">
-        <v>94</v>
-      </c>
-      <c r="C273">
-        <v>80</v>
-      </c>
-      <c r="D273">
-        <v>4</v>
-      </c>
-      <c r="E273" t="s">
-        <v>94</v>
-      </c>
-      <c r="F273">
-        <v>7</v>
-      </c>
-      <c r="G273">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A274">
-        <v>70411</v>
-      </c>
-      <c r="B274" t="s">
-        <v>79</v>
-      </c>
-      <c r="C274">
-        <v>65</v>
-      </c>
-      <c r="D274">
-        <v>4</v>
-      </c>
-      <c r="E274" t="s">
-        <v>79</v>
-      </c>
-      <c r="F274">
-        <v>7</v>
-      </c>
-      <c r="G274">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A275">
-        <v>70412</v>
-      </c>
-      <c r="B275" t="s">
-        <v>80</v>
-      </c>
-      <c r="C275">
-        <v>66</v>
-      </c>
-      <c r="D275">
-        <v>4</v>
-      </c>
-      <c r="E275" t="s">
-        <v>80</v>
-      </c>
-      <c r="F275">
-        <v>7</v>
-      </c>
-      <c r="G275">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A276">
-        <v>70413</v>
-      </c>
-      <c r="B276" t="s">
-        <v>81</v>
-      </c>
-      <c r="C276">
-        <v>67</v>
-      </c>
-      <c r="D276">
-        <v>4</v>
-      </c>
-      <c r="E276" t="s">
-        <v>81</v>
-      </c>
-      <c r="F276">
-        <v>7</v>
-      </c>
-      <c r="G276">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A277">
-        <v>70414</v>
-      </c>
-      <c r="B277" t="s">
-        <v>82</v>
-      </c>
-      <c r="C277">
-        <v>68</v>
-      </c>
-      <c r="D277">
-        <v>4</v>
-      </c>
-      <c r="E277" t="s">
-        <v>82</v>
-      </c>
-      <c r="F277">
-        <v>7</v>
-      </c>
-      <c r="G277">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A278">
-        <v>70415</v>
-      </c>
-      <c r="B278" t="s">
-        <v>83</v>
-      </c>
-      <c r="C278">
-        <v>69</v>
-      </c>
-      <c r="D278">
-        <v>4</v>
-      </c>
-      <c r="E278" t="s">
-        <v>83</v>
-      </c>
-      <c r="F278">
-        <v>7</v>
-      </c>
-      <c r="G278">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A279">
-        <v>70416</v>
-      </c>
-      <c r="B279" t="s">
-        <v>84</v>
-      </c>
-      <c r="C279">
-        <v>70</v>
-      </c>
-      <c r="D279">
-        <v>4</v>
-      </c>
-      <c r="E279" t="s">
-        <v>84</v>
-      </c>
-      <c r="F279">
-        <v>7</v>
-      </c>
-      <c r="G279">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A280">
-        <v>70417</v>
-      </c>
-      <c r="B280" t="s">
-        <v>85</v>
-      </c>
-      <c r="C280">
-        <v>71</v>
-      </c>
-      <c r="D280">
-        <v>4</v>
-      </c>
-      <c r="E280" t="s">
-        <v>85</v>
-      </c>
-      <c r="F280">
-        <v>7</v>
-      </c>
-      <c r="G280">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A281">
-        <v>70418</v>
-      </c>
-      <c r="B281" t="s">
-        <v>86</v>
-      </c>
-      <c r="C281">
-        <v>72</v>
-      </c>
-      <c r="D281">
-        <v>4</v>
-      </c>
-      <c r="E281" t="s">
-        <v>86</v>
-      </c>
-      <c r="F281">
-        <v>7</v>
-      </c>
-      <c r="G281">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A282">
-        <v>80401</v>
-      </c>
-      <c r="B282" t="s">
-        <v>87</v>
-      </c>
-      <c r="C282">
-        <v>73</v>
-      </c>
-      <c r="D282">
-        <v>4</v>
-      </c>
-      <c r="E282" t="s">
-        <v>87</v>
-      </c>
-      <c r="F282">
-        <v>8</v>
-      </c>
-      <c r="G282">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A283">
-        <v>80402</v>
-      </c>
-      <c r="B283" t="s">
-        <v>88</v>
-      </c>
-      <c r="C283">
-        <v>74</v>
-      </c>
-      <c r="D283">
-        <v>4</v>
-      </c>
-      <c r="E283" t="s">
-        <v>88</v>
-      </c>
-      <c r="F283">
-        <v>8</v>
-      </c>
-      <c r="G283">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A284">
-        <v>80403</v>
-      </c>
-      <c r="B284" t="s">
-        <v>89</v>
-      </c>
-      <c r="C284">
-        <v>75</v>
-      </c>
-      <c r="D284">
-        <v>4</v>
-      </c>
-      <c r="E284" t="s">
-        <v>89</v>
-      </c>
-      <c r="F284">
-        <v>8</v>
-      </c>
-      <c r="G284">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A285">
-        <v>80404</v>
-      </c>
-      <c r="B285" t="s">
-        <v>90</v>
-      </c>
-      <c r="C285">
-        <v>76</v>
-      </c>
-      <c r="D285">
-        <v>4</v>
-      </c>
-      <c r="E285" t="s">
-        <v>90</v>
-      </c>
-      <c r="F285">
-        <v>8</v>
-      </c>
-      <c r="G285">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A286">
-        <v>80405</v>
-      </c>
-      <c r="B286" t="s">
-        <v>91</v>
-      </c>
-      <c r="C286">
-        <v>77</v>
-      </c>
-      <c r="D286">
-        <v>4</v>
-      </c>
-      <c r="E286" t="s">
-        <v>91</v>
-      </c>
-      <c r="F286">
-        <v>8</v>
-      </c>
-      <c r="G286">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A287">
-        <v>80406</v>
-      </c>
-      <c r="B287" t="s">
-        <v>92</v>
-      </c>
-      <c r="C287">
-        <v>78</v>
-      </c>
-      <c r="D287">
-        <v>4</v>
-      </c>
-      <c r="E287" t="s">
-        <v>92</v>
-      </c>
-      <c r="F287">
-        <v>8</v>
-      </c>
-      <c r="G287">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A288">
-        <v>80407</v>
-      </c>
-      <c r="B288" t="s">
-        <v>93</v>
-      </c>
-      <c r="C288">
-        <v>79</v>
-      </c>
-      <c r="D288">
-        <v>4</v>
-      </c>
-      <c r="E288" t="s">
-        <v>93</v>
-      </c>
-      <c r="F288">
-        <v>8</v>
-      </c>
-      <c r="G288">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A289">
-        <v>80408</v>
-      </c>
-      <c r="B289" t="s">
-        <v>94</v>
-      </c>
-      <c r="C289">
-        <v>80</v>
-      </c>
-      <c r="D289">
-        <v>4</v>
-      </c>
-      <c r="E289" t="s">
-        <v>94</v>
-      </c>
-      <c r="F289">
-        <v>8</v>
-      </c>
-      <c r="G289">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A290">
-        <v>80411</v>
-      </c>
-      <c r="B290" t="s">
-        <v>79</v>
-      </c>
-      <c r="C290">
-        <v>65</v>
-      </c>
-      <c r="D290">
-        <v>4</v>
-      </c>
-      <c r="E290" t="s">
-        <v>79</v>
-      </c>
-      <c r="F290">
-        <v>8</v>
-      </c>
-      <c r="G290">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A291">
-        <v>80412</v>
-      </c>
-      <c r="B291" t="s">
-        <v>80</v>
-      </c>
-      <c r="C291">
-        <v>66</v>
-      </c>
-      <c r="D291">
-        <v>4</v>
-      </c>
-      <c r="E291" t="s">
-        <v>80</v>
-      </c>
-      <c r="F291">
-        <v>8</v>
-      </c>
-      <c r="G291">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A292">
-        <v>80413</v>
-      </c>
-      <c r="B292" t="s">
-        <v>81</v>
-      </c>
-      <c r="C292">
-        <v>67</v>
-      </c>
-      <c r="D292">
-        <v>4</v>
-      </c>
-      <c r="E292" t="s">
-        <v>81</v>
-      </c>
-      <c r="F292">
-        <v>8</v>
-      </c>
-      <c r="G292">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A293">
-        <v>80414</v>
-      </c>
-      <c r="B293" t="s">
-        <v>82</v>
-      </c>
-      <c r="C293">
-        <v>68</v>
-      </c>
-      <c r="D293">
-        <v>4</v>
-      </c>
-      <c r="E293" t="s">
-        <v>82</v>
-      </c>
-      <c r="F293">
-        <v>8</v>
-      </c>
-      <c r="G293">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A294">
-        <v>80415</v>
-      </c>
-      <c r="B294" t="s">
-        <v>83</v>
-      </c>
-      <c r="C294">
-        <v>69</v>
-      </c>
-      <c r="D294">
-        <v>4</v>
-      </c>
-      <c r="E294" t="s">
-        <v>83</v>
-      </c>
-      <c r="F294">
-        <v>8</v>
-      </c>
-      <c r="G294">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A295">
-        <v>80416</v>
-      </c>
-      <c r="B295" t="s">
-        <v>84</v>
-      </c>
-      <c r="C295">
-        <v>70</v>
-      </c>
-      <c r="D295">
-        <v>4</v>
-      </c>
-      <c r="E295" t="s">
-        <v>84</v>
-      </c>
-      <c r="F295">
-        <v>8</v>
-      </c>
-      <c r="G295">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A296">
-        <v>80417</v>
-      </c>
-      <c r="B296" t="s">
-        <v>85</v>
-      </c>
-      <c r="C296">
-        <v>71</v>
-      </c>
-      <c r="D296">
-        <v>4</v>
-      </c>
-      <c r="E296" t="s">
-        <v>85</v>
-      </c>
-      <c r="F296">
-        <v>8</v>
-      </c>
-      <c r="G296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A297">
-        <v>80418</v>
-      </c>
-      <c r="B297" t="s">
-        <v>86</v>
-      </c>
-      <c r="C297">
-        <v>72</v>
-      </c>
-      <c r="D297">
-        <v>4</v>
-      </c>
-      <c r="E297" t="s">
-        <v>86</v>
-      </c>
-      <c r="F297">
-        <v>8</v>
-      </c>
-      <c r="G297">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A298">
-        <v>90401</v>
-      </c>
-      <c r="B298" t="s">
-        <v>87</v>
-      </c>
-      <c r="C298">
-        <v>73</v>
-      </c>
-      <c r="D298">
-        <v>4</v>
-      </c>
-      <c r="E298" t="s">
-        <v>87</v>
-      </c>
-      <c r="F298">
-        <v>9</v>
-      </c>
-      <c r="G298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A299">
-        <v>90402</v>
-      </c>
-      <c r="B299" t="s">
-        <v>88</v>
-      </c>
-      <c r="C299">
-        <v>74</v>
-      </c>
-      <c r="D299">
-        <v>4</v>
-      </c>
-      <c r="E299" t="s">
-        <v>88</v>
-      </c>
-      <c r="F299">
-        <v>9</v>
-      </c>
-      <c r="G299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A300">
-        <v>90403</v>
-      </c>
-      <c r="B300" t="s">
-        <v>89</v>
-      </c>
-      <c r="C300">
-        <v>75</v>
-      </c>
-      <c r="D300">
-        <v>4</v>
-      </c>
-      <c r="E300" t="s">
-        <v>89</v>
-      </c>
-      <c r="F300">
-        <v>9</v>
-      </c>
-      <c r="G300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A301">
-        <v>90404</v>
-      </c>
-      <c r="B301" t="s">
-        <v>90</v>
-      </c>
-      <c r="C301">
-        <v>76</v>
-      </c>
-      <c r="D301">
-        <v>4</v>
-      </c>
-      <c r="E301" t="s">
-        <v>90</v>
-      </c>
-      <c r="F301">
-        <v>9</v>
-      </c>
-      <c r="G301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A302">
-        <v>90405</v>
-      </c>
-      <c r="B302" t="s">
-        <v>91</v>
-      </c>
-      <c r="C302">
-        <v>77</v>
-      </c>
-      <c r="D302">
-        <v>4</v>
-      </c>
-      <c r="E302" t="s">
-        <v>91</v>
-      </c>
-      <c r="F302">
-        <v>9</v>
-      </c>
-      <c r="G302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A303">
-        <v>90406</v>
-      </c>
-      <c r="B303" t="s">
-        <v>92</v>
-      </c>
-      <c r="C303">
-        <v>78</v>
-      </c>
-      <c r="D303">
-        <v>4</v>
-      </c>
-      <c r="E303" t="s">
-        <v>92</v>
-      </c>
-      <c r="F303">
-        <v>9</v>
-      </c>
-      <c r="G303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A304">
-        <v>90407</v>
-      </c>
-      <c r="B304" t="s">
-        <v>93</v>
-      </c>
-      <c r="C304">
-        <v>79</v>
-      </c>
-      <c r="D304">
-        <v>4</v>
-      </c>
-      <c r="E304" t="s">
-        <v>93</v>
-      </c>
-      <c r="F304">
-        <v>9</v>
-      </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A305">
-        <v>90408</v>
-      </c>
-      <c r="B305" t="s">
-        <v>94</v>
-      </c>
-      <c r="C305">
-        <v>80</v>
-      </c>
-      <c r="D305">
-        <v>4</v>
-      </c>
-      <c r="E305" t="s">
-        <v>94</v>
-      </c>
-      <c r="F305">
-        <v>9</v>
-      </c>
-      <c r="G305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A306">
-        <v>90411</v>
-      </c>
-      <c r="B306" t="s">
-        <v>79</v>
-      </c>
-      <c r="C306">
-        <v>65</v>
-      </c>
-      <c r="D306">
-        <v>4</v>
-      </c>
-      <c r="E306" t="s">
-        <v>79</v>
-      </c>
-      <c r="F306">
-        <v>9</v>
-      </c>
-      <c r="G306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A307">
-        <v>90412</v>
-      </c>
-      <c r="B307" t="s">
-        <v>80</v>
-      </c>
-      <c r="C307">
-        <v>66</v>
-      </c>
-      <c r="D307">
-        <v>4</v>
-      </c>
-      <c r="E307" t="s">
-        <v>80</v>
-      </c>
-      <c r="F307">
-        <v>9</v>
-      </c>
-      <c r="G307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A308">
-        <v>90413</v>
-      </c>
-      <c r="B308" t="s">
-        <v>81</v>
-      </c>
-      <c r="C308">
-        <v>67</v>
-      </c>
-      <c r="D308">
-        <v>4</v>
-      </c>
-      <c r="E308" t="s">
-        <v>81</v>
-      </c>
-      <c r="F308">
-        <v>9</v>
-      </c>
-      <c r="G308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A309">
-        <v>90414</v>
-      </c>
-      <c r="B309" t="s">
-        <v>82</v>
-      </c>
-      <c r="C309">
-        <v>68</v>
-      </c>
-      <c r="D309">
-        <v>4</v>
-      </c>
-      <c r="E309" t="s">
-        <v>82</v>
-      </c>
-      <c r="F309">
-        <v>9</v>
-      </c>
-      <c r="G309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A310">
-        <v>90415</v>
-      </c>
-      <c r="B310" t="s">
-        <v>83</v>
-      </c>
-      <c r="C310">
-        <v>69</v>
-      </c>
-      <c r="D310">
-        <v>4</v>
-      </c>
-      <c r="E310" t="s">
-        <v>83</v>
-      </c>
-      <c r="F310">
-        <v>9</v>
-      </c>
-      <c r="G310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A311">
-        <v>90416</v>
-      </c>
-      <c r="B311" t="s">
-        <v>84</v>
-      </c>
-      <c r="C311">
-        <v>70</v>
-      </c>
-      <c r="D311">
-        <v>4</v>
-      </c>
-      <c r="E311" t="s">
-        <v>84</v>
-      </c>
-      <c r="F311">
-        <v>9</v>
-      </c>
-      <c r="G311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A312">
-        <v>90417</v>
-      </c>
-      <c r="B312" t="s">
-        <v>85</v>
-      </c>
-      <c r="C312">
-        <v>71</v>
-      </c>
-      <c r="D312">
-        <v>4</v>
-      </c>
-      <c r="E312" t="s">
-        <v>85</v>
-      </c>
-      <c r="F312">
-        <v>9</v>
-      </c>
-      <c r="G312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A313">
-        <v>90418</v>
-      </c>
-      <c r="B313" t="s">
-        <v>86</v>
-      </c>
-      <c r="C313">
-        <v>72</v>
-      </c>
-      <c r="D313">
-        <v>4</v>
-      </c>
-      <c r="E313" t="s">
-        <v>86</v>
-      </c>
-      <c r="F313">
-        <v>9</v>
-      </c>
-      <c r="G313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A314">
-        <v>100401</v>
-      </c>
-      <c r="B314" t="s">
-        <v>87</v>
-      </c>
-      <c r="C314">
-        <v>73</v>
-      </c>
-      <c r="D314">
-        <v>4</v>
-      </c>
-      <c r="E314" t="s">
-        <v>87</v>
-      </c>
-      <c r="F314">
-        <v>10</v>
-      </c>
-      <c r="G314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A315">
-        <v>100402</v>
-      </c>
-      <c r="B315" t="s">
-        <v>88</v>
-      </c>
-      <c r="C315">
-        <v>74</v>
-      </c>
-      <c r="D315">
-        <v>4</v>
-      </c>
-      <c r="E315" t="s">
-        <v>88</v>
-      </c>
-      <c r="F315">
-        <v>10</v>
-      </c>
-      <c r="G315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A316">
-        <v>100403</v>
-      </c>
-      <c r="B316" t="s">
-        <v>89</v>
-      </c>
-      <c r="C316">
-        <v>75</v>
-      </c>
-      <c r="D316">
-        <v>4</v>
-      </c>
-      <c r="E316" t="s">
-        <v>89</v>
-      </c>
-      <c r="F316">
-        <v>10</v>
-      </c>
-      <c r="G316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A317">
-        <v>100404</v>
-      </c>
-      <c r="B317" t="s">
-        <v>90</v>
-      </c>
-      <c r="C317">
-        <v>76</v>
-      </c>
-      <c r="D317">
-        <v>4</v>
-      </c>
-      <c r="E317" t="s">
-        <v>90</v>
-      </c>
-      <c r="F317">
-        <v>10</v>
-      </c>
-      <c r="G317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A318">
-        <v>100405</v>
-      </c>
-      <c r="B318" t="s">
-        <v>91</v>
-      </c>
-      <c r="C318">
-        <v>77</v>
-      </c>
-      <c r="D318">
-        <v>4</v>
-      </c>
-      <c r="E318" t="s">
-        <v>91</v>
-      </c>
-      <c r="F318">
-        <v>10</v>
-      </c>
-      <c r="G318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A319">
-        <v>100406</v>
-      </c>
-      <c r="B319" t="s">
-        <v>92</v>
-      </c>
-      <c r="C319">
-        <v>78</v>
-      </c>
-      <c r="D319">
-        <v>4</v>
-      </c>
-      <c r="E319" t="s">
-        <v>92</v>
-      </c>
-      <c r="F319">
-        <v>10</v>
-      </c>
-      <c r="G319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A320">
-        <v>100407</v>
-      </c>
-      <c r="B320" t="s">
-        <v>93</v>
-      </c>
-      <c r="C320">
-        <v>79</v>
-      </c>
-      <c r="D320">
-        <v>4</v>
-      </c>
-      <c r="E320" t="s">
-        <v>93</v>
-      </c>
-      <c r="F320">
-        <v>10</v>
-      </c>
-      <c r="G320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A321">
-        <v>100408</v>
-      </c>
-      <c r="B321" t="s">
-        <v>94</v>
-      </c>
-      <c r="C321">
-        <v>80</v>
-      </c>
-      <c r="D321">
-        <v>4</v>
-      </c>
-      <c r="E321" t="s">
-        <v>94</v>
-      </c>
-      <c r="F321">
-        <v>10</v>
-      </c>
-      <c r="G321">
         <v>1</v>
       </c>
     </row>

--- a/delete1/compoundData.xlsx
+++ b/delete1/compoundData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -38,114 +38,66 @@
   </si>
   <si>
     <t>曹仁</t>
-  </si>
-  <si>
-    <t>曹仁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张春华</t>
-  </si>
-  <si>
-    <t>张春华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>曹丕</t>
-  </si>
-  <si>
-    <t>曹丕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>徐晃</t>
-  </si>
-  <si>
-    <t>徐晃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>典韦</t>
-  </si>
-  <si>
-    <t>典韦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张郃</t>
-  </si>
-  <si>
-    <t>张郃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夏侯渊</t>
-  </si>
-  <si>
-    <t>夏侯渊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>程昱</t>
-  </si>
-  <si>
-    <t>程昱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>郭嘉</t>
-  </si>
-  <si>
-    <t>郭嘉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>司马懿</t>
-  </si>
-  <si>
-    <t>司马懿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>甄姬</t>
-  </si>
-  <si>
-    <t>甄姬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张辽</t>
-  </si>
-  <si>
-    <t>张辽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>曹操</t>
-  </si>
-  <si>
-    <t>曹操</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>许褚</t>
-  </si>
-  <si>
-    <t>许褚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夏侯惇</t>
-  </si>
-  <si>
-    <t>夏侯惇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>荀彧</t>
-  </si>
-  <si>
-    <t>荀彧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -334,6 +286,254 @@
   </si>
   <si>
     <t>刘禅</t>
+  </si>
+  <si>
+    <t>字仲德，本名程立，因梦中於泰山捧日，更名程昱。荀彧投曹操时向其举荐程昱。他参与了攻打吕布、袁绍、刘备、孙权的大部份战事，一直出谋献策，表现出众。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋宣帝，字仲达，河内温人。曾任职过曹魏的大都督，太尉，太傅。少有奇节，聪明多大略，博学洽闻，伏膺儒教，世之鬼才也。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山无极人，别称甄洛或甄宓，庙号文昭甄皇后。魏文帝曹丕的正室。懂诗文，有倾国倾城之貌，《洛神赋》即是曹植为她所作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字文远，魏雁门马邑人。官至前将军、征东将军、晋阳侯。武功高强，又谋略过人，多次建立奇功，以800人突袭孙权十万大军，皆望风披靡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏武帝曹操，字孟德，小名阿瞒、吉利，沛国谯人。精兵法，善诗歌，乃治世之能臣，乱世之奸雄也。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字仲康，谯国谯县人。和典韦一同统率着曹操的亲卫队“虎卫军”。因为他十分勇猛，所以有“虎痴”的绰号。曾有裸衣斗马超之举。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字元让，沛国谯人。有拔矢啖睛之勇，性格勇猛刚烈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀彧，字文若，颍川颍阴（今河南许昌）人。东汉末年曹操帐下首席谋臣，杰出的战略家。自小被世人称作“王佐之才”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字元直，与司马徽、诸葛亮等人为友。先化名单福仕官于新野的刘备，后因曹操囚禁其母而不得不弃备投操，临行前向刘备推荐诸葛亮之才。入曹营后，一言不发，不曾为曹操进献过一计半策。后人形容徐庶“身在曹营心在汉”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河东解县（今山西运城）人，美髯公关羽之女。因在关羽的四个子女中排行第三，故又被称作“关三小姐”、“关氏三姐”或“关羽三小姐”。传说她是赵云的弟子、并随同诸葛亮平定南蛮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞统，字士元，襄阳（治今湖北襄阳）人。三国时刘备帐下谋士，官拜军师中郎将。才智与诸葛亮齐名，人称“凤雏”。在进围雒县时，统率众攻城，不幸被流矢击中去世，时年三十六岁。追赐统为关内侯，谥曰靖侯。庞统死后，葬于落凤庞统墓坡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字文长，义阳人。三国时期蜀汉名将，诸葛亮死后，魏延因被陷害谋反而遭杨仪一党所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据传为火神祝融氏后裔，南蛮王孟获之妻。武艺超群，善使飞刀，是《三国演义》中写到的唯一真正上过战场的女性。曾与孟获一起抵抗蜀军，在诸葛亮七擒七纵孟获之后，随孟获投降蜀汉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀汉后主，字公嗣。小名阿斗。刘备之子，母亲是昭烈皇后甘氏。三国时期蜀汉第二位皇帝，公元223－263年在位。公元263年蜀汉被曹魏所灭，刘禅投降曹魏，被封为安乐公。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国三国时期南中少数族首领。系东汉末益州建宁郡( 今云南晋宁东 )大姓，身材肥硕。生卒年不详。官至御史中丞。曾被诸葛亮七擒七纵，传为佳话。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名将马超的从弟。早年他曾经从曹操手中死里逃生，后跟随马超大战曹操。后在诸葛亮病逝后受杨仪派遣斩杀了蜀将魏延。曾率领军队出师北伐，被魏将牛金击败而退还。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆州沔南白水人，沔阳名士黄承彦之女，诸葛亮之妻，诸葛瞻之母。容貌甚丑，而有奇才：上通天文，下察地理，韬略近于诸书无所不晓，诸葛亮在南阳闻其贤而迎娶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字云长，本字长生，并州河东解州人。五虎上将之首，爵至汉寿亭侯，谥曰“壮缪侯”。被奉为“关圣帝君”，崇为“武圣”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先主姓刘，讳备，字玄德，涿郡涿县人，汉景帝子中山靖王胜之后也。以仁德治天下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字翼德，涿郡人，燕颔虎须，豹头环眼。有诗云：“长坂坡头杀气生，横枪立马眼圆睁。一声好似轰雷震，独退曹家百万兵”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字子龙，常山真定人。身长八尺，姿颜雄伟。长坂坡单骑救阿斗，先主云：“子龙一身都是胆也。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字汉升，今河南南阳人。汉末三国时期蜀汉名将。本为刘表部下中郎将，后归刘备，并助刘备攻益州刘璋，在定军山一战中阵斩曹操部下名将夏侯渊。备称汉中王后改封后将军，赐关内侯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字孔明，号卧龙，琅琊阳都人，蜀汉丞相。在世时被封为武乡侯，谥曰忠武侯。著有《出师表》、《诫子书》等。怀不世之才，以空城戏司马，能观星象而通鬼神。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字孟起，扶风茂陵人。面如冠玉，目如流星，虎体猿臂，彪腹狼腰，声雄力猛。因衣着讲究，举止非凡，故人称“锦马超”。麾铁骑，捻金枪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字伯符，吴郡富春人。孙坚长子，孙权长兄。东汉末年割据江东一带的军阀，汉末群雄之一，三国时期吴国的奠基者。三国演义中绰号“小霸王”，统一江东。在一次狩猎中为刺客所伤，不久后身亡，年仅二十六岁。其弟孙权接掌孙策势力，并于称帝后，追谥孙策为长沙桓王。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步夫人（？－238），讳练师，临淮淮阴人。东吴丞相步骘同族，吴大帝孙权之妃，在孙权众夫人中最受孙权的宠爱（宠冠后庭），生有二女：孙鲁班、孙鲁育。赤乌元年卒，追封为皇后，葬于蒋陵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庐江皖县人，为乔公长女，孙策之妻，小乔之姊。与小乔并称为“江东二乔”，容貌国色流离。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴国著名将领，吕蒙白衣渡江取荆州，朱然协助潘璋捉住了关羽。黄武元年，刘备兵伐东吴，朱然与孙桓抵抗刘备大军。后又参加夷陵之战，追击刘备，被前来接应的赵云一枪刺死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太史慈，字子义，东莱黄县（今山东龙口东黄城集）人。东汉末年武将，守言应诺，恪遵信义，始终如一，弭息诽论。官至建昌都尉。弓马熟练，箭法精良。原为刘繇部下，后被孙策收降，于赤壁之战前病逝，死时才四十一岁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字子敬，汉族，临淮东城人，中国东汉末年东吴的著名军事统帅。他曾为孙权提出鼎足江东的战略规划，因此得到孙权的赏识，于周瑜死后代替周瑜领兵，守陆口。曾单刀赴会关羽于荆州。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字幼平，九江下蔡人，三国时期吴国武将。早年与蒋钦随孙策左右，立过数次战功。孙策讨伐六县山贼时，周泰胆气绝伦，保卫孙权，勇战退敌，身受十二处伤。有诗云：三番救主出重围，忠勇如公世所稀。遍体疮痍犹痛饮，血痕残酒满征衣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字德谋，右北平土垠人。历仕孙坚、孙策、孙权三任君主。孙策死后，他与张昭等人共同辅佐孙权，并讨伐江东境内的山贼，功勋卓著。被人们尊称为“程公”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字公瑾，庐江舒县人，任东吴三军大都督，雄姿英发，人称“美周郎”。赤壁之战前，巧用反间计杀了精通水战的叛将蔡瑁、张允。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴大帝，字仲谋，吴郡富春县人。统领吴与蜀魏三足鼎立，制衡天下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庐江皖县人也。父桥国老德尊于时。小乔国色流离，资貌绝伦。建安三年，周瑜协策攻皖，拔之。娶小乔为妻。后人谓英雄美女，天作之合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本名陆议，字伯言，吴郡吴县人。历任东吴大都督、丞相。吴大帝孙权兄孙策之婿，世代为江东大族。以谦逊之书麻痹关羽，夺取荆州，又有火烧连营大破蜀军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字兴霸，巴郡临江人，祖籍荆州南阳郡。为人勇猛刚强，忠心耿耿，勇往无前。曾带兵百人于二更奇袭曹营，大挫其锐气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字子明，汝南富陂人。陈寿评曰：“吕蒙勇而有谋断，识军计，谲郝普，擒关羽，最其妙者。初虽轻果妄杀，终于克己，有国士之量，岂徒武将而已乎！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙夫人，乃孙权之妹。刘备定荆州，孙权进妹与其结姻，重固盟好。孙夫人才捷刚猛，有诸兄之风。后人为其立庙，号曰“枭姬庙”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字公覆，零陵郡泉陵县人。官至偏将军、武陵太守。以苦肉计骗曹孟德，亲往诈降，火烧战船，重创敌军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字公台，东汉末年吕布帐下谋士，东郡东武阳人。性情刚直，足智多谋，年少时与海内知名之士相互结交。192年，陈宫等人主张曹操接任兖州牧。但此后陈宫因曹操杀害边让而与曹操反目，并游说张邈等人背叛曹操迎吕布入兖州，辅助吕布攻打曹操。吕布战败后，随吕布等一同被曹操所擒，决意赴死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自号太平道人，琅琊人，在吴郡、会稽一带为百姓治病，甚得人心。孙策怒之，以惑人心为由斩之，后策常受吉咒而亡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国东汉末年将领，吕布帐下中郎将。史载高顺为人清白有威严，不好饮酒，所统率的部队精锐非常，号称“陷阵营”。屡进忠言于吕布，吕布虽知其忠而不能用。曹操击破吕布后，高顺被曹操所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字令明，东汉末年雍州南安郡狟道县（今甘肃天水市武山县四门镇）人。曹操部下重要将领。官至立义将军，拜关门亭侯。谥曰壮侯。有一子庞会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字伯珪，汉族，号“白马义从”。辽西令支人。东汉末年献帝年间占据幽州一带的军阀，汉末群雄之一。出身贵族，因母地位卑贱，只当了郡中小吏。他貌美，声音洪亮，机智善辩。后随卢植于缑氏山中读书，粗通经传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名琰，原字昭姬，晋时避司马昭讳，改字文姬，东汉末年陈留圉（今河南开封杞县）人，东汉大文学家的女儿，是中国历史上著名的才女和文学家，精于天文数理，既博学能文，又善诗赋，兼长辩才与音律。代表作有《胡笳十八拍》、《悲愤诗》等 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字本初，汉族，汝南汝阳人，出身名门望族，自曾祖父起四代有五人位居三公，自己也居三公之上，其家族也因此有“四世三公”之称。曾于初平元年被推举为反董卓联合军的盟主，联军瓦解后，在汉末群雄割据的过程中，袁绍先占据冀州，又先后夺青、并二州，并于建安四年击败了割据幽州的军阀公孙瓒，势力达到顶点；但在建安五年的官渡之战中败于曹操。在平定冀州叛乱之后，于建安七年病死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓旗下名将，自荐抵抗山东地区反对董卓的诸侯联军于汜水关前，他先后斩杀济北相鲍信之弟鲍忠和孙坚部将祖茂、以及袁术部将俞涉和韩馥手下潘凤等人，最后关东联军派出关羽与之一对一决斗而被杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国古代四大美女之一，有闭月羞花之貌。司徒王允之义女，由王允授意施行连环计，离间董卓、吕布，借布手除卓。后貂蝉成为吕布的妾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左慈，字元放，东汉末方士，汉族，庐江（今安徽庐江西南）人。在道教历史上，东汉时期的丹鼎派道术是从他一脉相传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字奉先，五原郡九原县人。三国第一猛将，曾独力战刘关张三人，其武力世之无双。时人语曰：“人中有吕布，马中有赤兔。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字文和，武威姑臧人。三国时期魏国著名谋士。曾先后担任三国军阀李傕、张绣、曹操的谋士。官至魏国太尉，谥曰肃侯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱世的开始，黄巾起义军首领，太平道创始人。张角早年信奉黄老学说，对在汉代十分流行的谶纬之学也深有研究，对民间医术 、巫术也很熟悉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字元化，一名旉，沛国谯人，“建安三神医”之一。集平生之所得著《青囊经》，现已失传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东汉末年河北袁绍部下武将，素有威名。颜良与文丑一起作为袁绍军队的勇将而闻名。建安四年（199），袁绍以颜良、文丑为将，率精卒十万，准备攻许都；次年，兵进黎阳，遣颜良攻白马。终均亡于关羽刀下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字仲颖，陇西临洮人。东汉末年少帝、献帝时权臣，西凉军阀。官至太师、郿侯。其为人残忍嗜杀，倒行逆施，招致群雄联合讨伐，但联合军在董卓迁都长安不久后瓦解。后被其亲信吕布所杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字子孝，沛国谯人，曹操的从弟。三国时期曹魏名将，官至大司马。谥曰忠侯。</t>
+  </si>
+  <si>
+    <t>西晋宣穆皇后张春华（189－247），河内平皋（今河南温县）人。她是晋宣帝司马懿之妻，晋景帝司马师、晋文帝司马昭的母亲。后被追尊为皇后。</t>
+  </si>
+  <si>
+    <t>魏的开国皇帝，公元220－226年在位。沛国谯人，魏武帝曹操与武宣卞皇后的长子。去世后庙号高祖，谥为文皇帝，葬于首阳陵。</t>
+  </si>
+  <si>
+    <t>字公明，河东杨人。三国时期曹魏名将，本为杨奉帐下骑都尉，杨奉被曹操击败后转投曹操，在曹操手下多立功勋，参与官渡、赤壁、关中征伐、汉中征伐等几次重大战役。</t>
+  </si>
+  <si>
+    <t>典韦，汉族，陈留己吾（今河南商丘市宁陵县己吾城村）人。东汉末年曹魏猛将。擅使大双戟，为人壮猛任侠，曾为乡人刘氏报仇，杀人出市，人莫敢近。相貌魁梧，膂力过人。建安二年（197），张绣背叛曹操，典韦为保护曹操而独挡叛军，击杀多人，但最终因寡不敌众而战死。</t>
+  </si>
+  <si>
+    <t>字儁乂，河间鄚人。三国时期魏国名将。官渡之战时，本为袁绍部将的张郃投降了曹操，并在曹操帐下多立功勋，于曹魏建立后加封为征西车骑将军。诸葛亮六出祁山之间，张郃多次抵御蜀军的进攻，于公元231年在木门道被诸葛亮设伏射死。后谥曰壮侯。为曹魏“五子良将”之一。</t>
+  </si>
+  <si>
+    <t>字妙才，沛国谯人。东汉末年曹操部下名将，夏侯惇之族弟，八虎骑之一。群雄征讨董卓时随曹操一同起兵，后征战四方，屡立功勋。在平定马超叛乱后负责西北防线的镇守。公元219年刘备攻打汉中，被刘备部将黄忠所杀。</t>
+  </si>
+  <si>
+    <t>字奉孝，颍川阳翟人，官至军师祭酒。惜天妒英才，英年早逝。有诗云：“良计环环不遗策，每临制变满座惊”。</t>
   </si>
 </sst>
 </file>
@@ -682,7 +882,7 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -715,7 +915,7 @@
         <v>50111</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -724,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -738,7 +938,7 @@
         <v>50112</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -747,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -761,7 +961,7 @@
         <v>50113</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -770,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -784,7 +984,7 @@
         <v>50114</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -793,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -807,7 +1007,7 @@
         <v>50115</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -816,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -830,7 +1030,7 @@
         <v>50116</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -839,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -853,7 +1053,7 @@
         <v>50117</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -862,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -876,7 +1076,7 @@
         <v>50118</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -885,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -899,7 +1099,7 @@
         <v>60101</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -908,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -922,7 +1122,7 @@
         <v>60102</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -931,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -945,7 +1145,7 @@
         <v>60103</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>15</v>
@@ -954,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -968,7 +1168,7 @@
         <v>60104</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -977,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -991,7 +1191,7 @@
         <v>60105</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -1000,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -1014,7 +1214,7 @@
         <v>60106</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -1023,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1037,7 +1237,7 @@
         <v>60107</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>19</v>
@@ -1046,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1060,7 +1260,7 @@
         <v>60108</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -1069,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -1083,7 +1283,7 @@
         <v>60111</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1092,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1106,7 +1306,7 @@
         <v>60113</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -1115,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -1129,7 +1329,7 @@
         <v>60115</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1138,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -1152,7 +1352,7 @@
         <v>60117</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -1161,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -1175,7 +1375,7 @@
         <v>70101</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -1184,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -1198,7 +1398,7 @@
         <v>70102</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>14</v>
@@ -1207,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -1221,7 +1421,7 @@
         <v>70103</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -1230,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F24">
         <v>7</v>
@@ -1244,7 +1444,7 @@
         <v>70104</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>16</v>
@@ -1253,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F25">
         <v>7</v>
@@ -1267,7 +1467,7 @@
         <v>70105</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>17</v>
@@ -1276,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -1290,7 +1490,7 @@
         <v>70106</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>18</v>
@@ -1299,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -1313,7 +1513,7 @@
         <v>70107</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>19</v>
@@ -1322,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -1336,7 +1536,7 @@
         <v>70108</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>20</v>
@@ -1345,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F29">
         <v>7</v>
@@ -1359,7 +1559,7 @@
         <v>70111</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -1368,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -1382,7 +1582,7 @@
         <v>70113</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -1391,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -1405,7 +1605,7 @@
         <v>70115</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -1414,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -1428,7 +1628,7 @@
         <v>70117</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>11</v>
@@ -1437,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="F33">
         <v>7</v>
@@ -1451,7 +1651,7 @@
         <v>80101</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>13</v>
@@ -1460,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -1474,7 +1674,7 @@
         <v>80102</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>14</v>
@@ -1483,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -1497,7 +1697,7 @@
         <v>80103</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>15</v>
@@ -1506,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -1520,7 +1720,7 @@
         <v>80104</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>16</v>
@@ -1529,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -1543,7 +1743,7 @@
         <v>80105</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>17</v>
@@ -1552,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -1566,7 +1766,7 @@
         <v>80106</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>18</v>
@@ -1575,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -1589,7 +1789,7 @@
         <v>80107</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>19</v>
@@ -1598,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -1612,7 +1812,7 @@
         <v>80108</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -1621,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -1635,7 +1835,7 @@
         <v>80111</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1644,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -1658,7 +1858,7 @@
         <v>80113</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -1667,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -1681,7 +1881,7 @@
         <v>80115</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -1690,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -1704,7 +1904,7 @@
         <v>80117</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -1713,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -1727,7 +1927,7 @@
         <v>90101</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>13</v>
@@ -1736,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="F46">
         <v>9</v>
@@ -1750,7 +1950,7 @@
         <v>90102</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>14</v>
@@ -1759,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F47">
         <v>9</v>
@@ -1773,7 +1973,7 @@
         <v>90103</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C48">
         <v>15</v>
@@ -1782,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F48">
         <v>9</v>
@@ -1796,7 +1996,7 @@
         <v>90104</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C49">
         <v>16</v>
@@ -1805,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F49">
         <v>9</v>
@@ -1819,7 +2019,7 @@
         <v>90105</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C50">
         <v>17</v>
@@ -1828,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F50">
         <v>9</v>
@@ -1842,7 +2042,7 @@
         <v>90106</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C51">
         <v>18</v>
@@ -1851,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F51">
         <v>9</v>
@@ -1865,7 +2065,7 @@
         <v>90107</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>19</v>
@@ -1874,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F52">
         <v>9</v>
@@ -1888,7 +2088,7 @@
         <v>90108</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -1897,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -1911,7 +2111,7 @@
         <v>90111</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1920,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="F54">
         <v>9</v>
@@ -1934,7 +2134,7 @@
         <v>90113</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -1943,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F55">
         <v>9</v>
@@ -1957,7 +2157,7 @@
         <v>90115</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -1966,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="F56">
         <v>9</v>
@@ -1980,7 +2180,7 @@
         <v>90117</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C57">
         <v>11</v>
@@ -1989,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="F57">
         <v>9</v>
@@ -2003,7 +2203,7 @@
         <v>100101</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C58">
         <v>13</v>
@@ -2012,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="F58">
         <v>10</v>
@@ -2026,7 +2226,7 @@
         <v>100102</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>14</v>
@@ -2035,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F59">
         <v>10</v>
@@ -2049,7 +2249,7 @@
         <v>100103</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C60">
         <v>15</v>
@@ -2058,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F60">
         <v>10</v>
@@ -2072,7 +2272,7 @@
         <v>100104</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>16</v>
@@ -2081,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F61">
         <v>10</v>
@@ -2095,7 +2295,7 @@
         <v>100105</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C62">
         <v>17</v>
@@ -2104,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F62">
         <v>10</v>
@@ -2118,7 +2318,7 @@
         <v>100106</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>18</v>
@@ -2127,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F63">
         <v>10</v>
@@ -2141,7 +2341,7 @@
         <v>100107</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>19</v>
@@ -2150,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F64">
         <v>10</v>
@@ -2164,7 +2364,7 @@
         <v>100108</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C65">
         <v>20</v>
@@ -2173,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F65">
         <v>10</v>
@@ -2187,7 +2387,7 @@
         <v>50211</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C66">
         <v>25</v>
@@ -2196,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F66">
         <v>5</v>
@@ -2210,7 +2410,7 @@
         <v>50212</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C67">
         <v>26</v>
@@ -2219,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F67">
         <v>5</v>
@@ -2233,7 +2433,7 @@
         <v>50213</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C68">
         <v>27</v>
@@ -2242,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F68">
         <v>5</v>
@@ -2256,7 +2456,7 @@
         <v>50214</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C69">
         <v>28</v>
@@ -2265,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F69">
         <v>5</v>
@@ -2279,7 +2479,7 @@
         <v>50215</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C70">
         <v>29</v>
@@ -2288,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F70">
         <v>5</v>
@@ -2302,7 +2502,7 @@
         <v>50216</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>30</v>
@@ -2311,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71">
         <v>5</v>
@@ -2325,7 +2525,7 @@
         <v>50217</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C72">
         <v>31</v>
@@ -2334,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F72">
         <v>5</v>
@@ -2348,7 +2548,7 @@
         <v>50218</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C73">
         <v>32</v>
@@ -2357,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F73">
         <v>5</v>
@@ -2371,7 +2571,7 @@
         <v>60201</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C74">
         <v>33</v>
@@ -2380,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -2394,7 +2594,7 @@
         <v>60202</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C75">
         <v>34</v>
@@ -2403,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F75">
         <v>6</v>
@@ -2417,7 +2617,7 @@
         <v>60203</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C76">
         <v>35</v>
@@ -2426,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F76">
         <v>6</v>
@@ -2440,7 +2640,7 @@
         <v>60204</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C77">
         <v>36</v>
@@ -2449,7 +2649,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F77">
         <v>6</v>
@@ -2463,7 +2663,7 @@
         <v>60205</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C78">
         <v>37</v>
@@ -2472,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F78">
         <v>6</v>
@@ -2486,7 +2686,7 @@
         <v>60206</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>38</v>
@@ -2495,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F79">
         <v>6</v>
@@ -2509,7 +2709,7 @@
         <v>60207</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C80">
         <v>39</v>
@@ -2518,7 +2718,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F80">
         <v>6</v>
@@ -2532,7 +2732,7 @@
         <v>60208</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C81">
         <v>40</v>
@@ -2541,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F81">
         <v>6</v>
@@ -2555,7 +2755,7 @@
         <v>60211</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C82">
         <v>25</v>
@@ -2564,7 +2764,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F82">
         <v>6</v>
@@ -2578,7 +2778,7 @@
         <v>60213</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C83">
         <v>27</v>
@@ -2587,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F83">
         <v>6</v>
@@ -2601,7 +2801,7 @@
         <v>60215</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C84">
         <v>29</v>
@@ -2610,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F84">
         <v>6</v>
@@ -2624,7 +2824,7 @@
         <v>60217</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C85">
         <v>31</v>
@@ -2633,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F85">
         <v>6</v>
@@ -2647,7 +2847,7 @@
         <v>70201</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C86">
         <v>33</v>
@@ -2656,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F86">
         <v>7</v>
@@ -2670,7 +2870,7 @@
         <v>70202</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C87">
         <v>34</v>
@@ -2679,7 +2879,7 @@
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F87">
         <v>7</v>
@@ -2693,7 +2893,7 @@
         <v>70203</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C88">
         <v>35</v>
@@ -2702,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F88">
         <v>7</v>
@@ -2716,7 +2916,7 @@
         <v>70204</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C89">
         <v>36</v>
@@ -2725,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F89">
         <v>7</v>
@@ -2739,7 +2939,7 @@
         <v>70205</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C90">
         <v>37</v>
@@ -2748,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F90">
         <v>7</v>
@@ -2762,7 +2962,7 @@
         <v>70206</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>38</v>
@@ -2771,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F91">
         <v>7</v>
@@ -2785,7 +2985,7 @@
         <v>70207</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C92">
         <v>39</v>
@@ -2794,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F92">
         <v>7</v>
@@ -2808,7 +3008,7 @@
         <v>70208</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C93">
         <v>40</v>
@@ -2817,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F93">
         <v>7</v>
@@ -2831,7 +3031,7 @@
         <v>70211</v>
       </c>
       <c r="B94" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C94">
         <v>25</v>
@@ -2840,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F94">
         <v>7</v>
@@ -2854,7 +3054,7 @@
         <v>70213</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C95">
         <v>27</v>
@@ -2863,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F95">
         <v>7</v>
@@ -2877,7 +3077,7 @@
         <v>70215</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C96">
         <v>29</v>
@@ -2886,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F96">
         <v>7</v>
@@ -2900,7 +3100,7 @@
         <v>70217</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C97">
         <v>31</v>
@@ -2909,7 +3109,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F97">
         <v>7</v>
@@ -2923,7 +3123,7 @@
         <v>80201</v>
       </c>
       <c r="B98" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C98">
         <v>33</v>
@@ -2932,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F98">
         <v>8</v>
@@ -2946,7 +3146,7 @@
         <v>80202</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C99">
         <v>34</v>
@@ -2955,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F99">
         <v>8</v>
@@ -2969,7 +3169,7 @@
         <v>80203</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C100">
         <v>35</v>
@@ -2978,7 +3178,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F100">
         <v>8</v>
@@ -2992,7 +3192,7 @@
         <v>80204</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C101">
         <v>36</v>
@@ -3001,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F101">
         <v>8</v>
@@ -3015,7 +3215,7 @@
         <v>80205</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C102">
         <v>37</v>
@@ -3024,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F102">
         <v>8</v>
@@ -3038,7 +3238,7 @@
         <v>80206</v>
       </c>
       <c r="B103" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>38</v>
@@ -3047,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F103">
         <v>8</v>
@@ -3061,7 +3261,7 @@
         <v>80207</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C104">
         <v>39</v>
@@ -3070,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F104">
         <v>8</v>
@@ -3084,7 +3284,7 @@
         <v>80208</v>
       </c>
       <c r="B105" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C105">
         <v>40</v>
@@ -3093,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F105">
         <v>8</v>
@@ -3107,7 +3307,7 @@
         <v>80211</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C106">
         <v>25</v>
@@ -3116,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F106">
         <v>8</v>
@@ -3130,7 +3330,7 @@
         <v>80213</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C107">
         <v>27</v>
@@ -3139,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F107">
         <v>8</v>
@@ -3153,7 +3353,7 @@
         <v>80215</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C108">
         <v>29</v>
@@ -3162,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F108">
         <v>8</v>
@@ -3176,7 +3376,7 @@
         <v>80217</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C109">
         <v>31</v>
@@ -3185,7 +3385,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F109">
         <v>8</v>
@@ -3199,7 +3399,7 @@
         <v>90201</v>
       </c>
       <c r="B110" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C110">
         <v>33</v>
@@ -3208,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F110">
         <v>9</v>
@@ -3222,7 +3422,7 @@
         <v>90202</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C111">
         <v>34</v>
@@ -3231,7 +3431,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F111">
         <v>9</v>
@@ -3245,7 +3445,7 @@
         <v>90203</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -3254,7 +3454,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F112">
         <v>9</v>
@@ -3268,7 +3468,7 @@
         <v>90204</v>
       </c>
       <c r="B113" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C113">
         <v>36</v>
@@ -3277,7 +3477,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F113">
         <v>9</v>
@@ -3291,7 +3491,7 @@
         <v>90205</v>
       </c>
       <c r="B114" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C114">
         <v>37</v>
@@ -3300,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F114">
         <v>9</v>
@@ -3314,7 +3514,7 @@
         <v>90206</v>
       </c>
       <c r="B115" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C115">
         <v>38</v>
@@ -3323,7 +3523,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F115">
         <v>9</v>
@@ -3337,7 +3537,7 @@
         <v>90207</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C116">
         <v>39</v>
@@ -3346,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F116">
         <v>9</v>
@@ -3360,7 +3560,7 @@
         <v>90208</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C117">
         <v>40</v>
@@ -3369,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F117">
         <v>9</v>
@@ -3383,7 +3583,7 @@
         <v>90211</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C118">
         <v>25</v>
@@ -3392,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F118">
         <v>9</v>
@@ -3406,7 +3606,7 @@
         <v>90213</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C119">
         <v>27</v>
@@ -3415,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F119">
         <v>9</v>
@@ -3429,7 +3629,7 @@
         <v>90215</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C120">
         <v>29</v>
@@ -3438,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="F120">
         <v>9</v>
@@ -3452,7 +3652,7 @@
         <v>90217</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C121">
         <v>31</v>
@@ -3461,7 +3661,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F121">
         <v>9</v>
@@ -3475,7 +3675,7 @@
         <v>100201</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C122">
         <v>33</v>
@@ -3484,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F122">
         <v>10</v>
@@ -3498,7 +3698,7 @@
         <v>100202</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C123">
         <v>34</v>
@@ -3507,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F123">
         <v>10</v>
@@ -3521,7 +3721,7 @@
         <v>100203</v>
       </c>
       <c r="B124" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C124">
         <v>35</v>
@@ -3530,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F124">
         <v>10</v>
@@ -3544,7 +3744,7 @@
         <v>100204</v>
       </c>
       <c r="B125" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C125">
         <v>36</v>
@@ -3553,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F125">
         <v>10</v>
@@ -3567,7 +3767,7 @@
         <v>100205</v>
       </c>
       <c r="B126" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C126">
         <v>37</v>
@@ -3576,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F126">
         <v>10</v>
@@ -3590,7 +3790,7 @@
         <v>100206</v>
       </c>
       <c r="B127" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C127">
         <v>38</v>
@@ -3599,7 +3799,7 @@
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F127">
         <v>10</v>
@@ -3613,7 +3813,7 @@
         <v>100207</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C128">
         <v>39</v>
@@ -3622,7 +3822,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F128">
         <v>10</v>
@@ -3636,7 +3836,7 @@
         <v>100208</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C129">
         <v>40</v>
@@ -3645,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F129">
         <v>10</v>
@@ -3659,7 +3859,7 @@
         <v>50311</v>
       </c>
       <c r="B130" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C130">
         <v>45</v>
@@ -3668,7 +3868,7 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="F130">
         <v>5</v>
@@ -3682,7 +3882,7 @@
         <v>50312</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C131">
         <v>46</v>
@@ -3691,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F131">
         <v>5</v>
@@ -3705,7 +3905,7 @@
         <v>50313</v>
       </c>
       <c r="B132" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C132">
         <v>47</v>
@@ -3714,7 +3914,7 @@
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="F132">
         <v>5</v>
@@ -3728,7 +3928,7 @@
         <v>50314</v>
       </c>
       <c r="B133" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C133">
         <v>48</v>
@@ -3737,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="F133">
         <v>5</v>
@@ -3751,7 +3951,7 @@
         <v>50315</v>
       </c>
       <c r="B134" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C134">
         <v>49</v>
@@ -3760,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="F134">
         <v>5</v>
@@ -3774,7 +3974,7 @@
         <v>50316</v>
       </c>
       <c r="B135" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C135">
         <v>50</v>
@@ -3783,7 +3983,7 @@
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="F135">
         <v>5</v>
@@ -3797,7 +3997,7 @@
         <v>50317</v>
       </c>
       <c r="B136" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C136">
         <v>51</v>
@@ -3806,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="F136">
         <v>5</v>
@@ -3820,7 +4020,7 @@
         <v>50318</v>
       </c>
       <c r="B137" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C137">
         <v>52</v>
@@ -3829,7 +4029,7 @@
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F137">
         <v>5</v>
@@ -3843,7 +4043,7 @@
         <v>60301</v>
       </c>
       <c r="B138" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C138">
         <v>53</v>
@@ -3852,7 +4052,7 @@
         <v>3</v>
       </c>
       <c r="E138" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F138">
         <v>6</v>
@@ -3866,7 +4066,7 @@
         <v>60302</v>
       </c>
       <c r="B139" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C139">
         <v>54</v>
@@ -3875,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F139">
         <v>6</v>
@@ -3889,7 +4089,7 @@
         <v>60303</v>
       </c>
       <c r="B140" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C140">
         <v>55</v>
@@ -3898,7 +4098,7 @@
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="F140">
         <v>6</v>
@@ -3912,7 +4112,7 @@
         <v>60304</v>
       </c>
       <c r="B141" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C141">
         <v>56</v>
@@ -3921,7 +4121,7 @@
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="F141">
         <v>6</v>
@@ -3935,7 +4135,7 @@
         <v>60305</v>
       </c>
       <c r="B142" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C142">
         <v>57</v>
@@ -3944,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F142">
         <v>6</v>
@@ -3958,7 +4158,7 @@
         <v>60306</v>
       </c>
       <c r="B143" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C143">
         <v>58</v>
@@ -3967,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -3981,7 +4181,7 @@
         <v>60307</v>
       </c>
       <c r="B144" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C144">
         <v>59</v>
@@ -3990,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F144">
         <v>6</v>
@@ -4004,7 +4204,7 @@
         <v>60308</v>
       </c>
       <c r="B145" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C145">
         <v>60</v>
@@ -4013,7 +4213,7 @@
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F145">
         <v>6</v>
@@ -4027,7 +4227,7 @@
         <v>60311</v>
       </c>
       <c r="B146" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C146">
         <v>45</v>
@@ -4036,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="F146">
         <v>6</v>
@@ -4050,7 +4250,7 @@
         <v>60313</v>
       </c>
       <c r="B147" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C147">
         <v>47</v>
@@ -4059,7 +4259,7 @@
         <v>3</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F147">
         <v>6</v>
@@ -4073,7 +4273,7 @@
         <v>60315</v>
       </c>
       <c r="B148" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C148">
         <v>49</v>
@@ -4082,7 +4282,7 @@
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F148">
         <v>6</v>
@@ -4096,7 +4296,7 @@
         <v>60317</v>
       </c>
       <c r="B149" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C149">
         <v>51</v>
@@ -4105,7 +4305,7 @@
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F149">
         <v>6</v>
@@ -4119,7 +4319,7 @@
         <v>70301</v>
       </c>
       <c r="B150" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C150">
         <v>53</v>
@@ -4128,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F150">
         <v>7</v>
@@ -4142,7 +4342,7 @@
         <v>70302</v>
       </c>
       <c r="B151" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C151">
         <v>54</v>
@@ -4151,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F151">
         <v>7</v>
@@ -4165,7 +4365,7 @@
         <v>70303</v>
       </c>
       <c r="B152" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C152">
         <v>55</v>
@@ -4174,7 +4374,7 @@
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="F152">
         <v>7</v>
@@ -4188,7 +4388,7 @@
         <v>70304</v>
       </c>
       <c r="B153" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C153">
         <v>56</v>
@@ -4197,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="F153">
         <v>7</v>
@@ -4211,7 +4411,7 @@
         <v>70305</v>
       </c>
       <c r="B154" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C154">
         <v>57</v>
@@ -4220,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F154">
         <v>7</v>
@@ -4234,7 +4434,7 @@
         <v>70306</v>
       </c>
       <c r="B155" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C155">
         <v>58</v>
@@ -4243,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F155">
         <v>7</v>
@@ -4257,7 +4457,7 @@
         <v>70307</v>
       </c>
       <c r="B156" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C156">
         <v>59</v>
@@ -4266,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F156">
         <v>7</v>
@@ -4280,7 +4480,7 @@
         <v>70308</v>
       </c>
       <c r="B157" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C157">
         <v>60</v>
@@ -4289,7 +4489,7 @@
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F157">
         <v>7</v>
@@ -4303,7 +4503,7 @@
         <v>70311</v>
       </c>
       <c r="B158" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C158">
         <v>45</v>
@@ -4312,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="F158">
         <v>7</v>
@@ -4326,7 +4526,7 @@
         <v>70313</v>
       </c>
       <c r="B159" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C159">
         <v>47</v>
@@ -4335,7 +4535,7 @@
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F159">
         <v>7</v>
@@ -4349,7 +4549,7 @@
         <v>70315</v>
       </c>
       <c r="B160" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C160">
         <v>49</v>
@@ -4358,7 +4558,7 @@
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F160">
         <v>7</v>
@@ -4372,7 +4572,7 @@
         <v>70317</v>
       </c>
       <c r="B161" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C161">
         <v>51</v>
@@ -4381,7 +4581,7 @@
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F161">
         <v>7</v>
@@ -4395,7 +4595,7 @@
         <v>80301</v>
       </c>
       <c r="B162" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C162">
         <v>53</v>
@@ -4404,7 +4604,7 @@
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F162">
         <v>8</v>
@@ -4418,7 +4618,7 @@
         <v>80302</v>
       </c>
       <c r="B163" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C163">
         <v>54</v>
@@ -4427,7 +4627,7 @@
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F163">
         <v>8</v>
@@ -4441,7 +4641,7 @@
         <v>80303</v>
       </c>
       <c r="B164" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C164">
         <v>55</v>
@@ -4450,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="F164">
         <v>8</v>
@@ -4464,7 +4664,7 @@
         <v>80304</v>
       </c>
       <c r="B165" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C165">
         <v>56</v>
@@ -4473,7 +4673,7 @@
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="F165">
         <v>8</v>
@@ -4487,7 +4687,7 @@
         <v>80305</v>
       </c>
       <c r="B166" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C166">
         <v>57</v>
@@ -4496,7 +4696,7 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F166">
         <v>8</v>
@@ -4510,7 +4710,7 @@
         <v>80306</v>
       </c>
       <c r="B167" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C167">
         <v>58</v>
@@ -4519,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F167">
         <v>8</v>
@@ -4533,7 +4733,7 @@
         <v>80307</v>
       </c>
       <c r="B168" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C168">
         <v>59</v>
@@ -4542,7 +4742,7 @@
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F168">
         <v>8</v>
@@ -4556,7 +4756,7 @@
         <v>80308</v>
       </c>
       <c r="B169" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C169">
         <v>60</v>
@@ -4565,7 +4765,7 @@
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F169">
         <v>8</v>
@@ -4579,7 +4779,7 @@
         <v>80311</v>
       </c>
       <c r="B170" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C170">
         <v>45</v>
@@ -4588,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="F170">
         <v>8</v>
@@ -4602,7 +4802,7 @@
         <v>80313</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C171">
         <v>47</v>
@@ -4611,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F171">
         <v>8</v>
@@ -4625,7 +4825,7 @@
         <v>80315</v>
       </c>
       <c r="B172" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C172">
         <v>49</v>
@@ -4634,7 +4834,7 @@
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F172">
         <v>8</v>
@@ -4648,7 +4848,7 @@
         <v>80317</v>
       </c>
       <c r="B173" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C173">
         <v>51</v>
@@ -4657,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F173">
         <v>8</v>
@@ -4671,7 +4871,7 @@
         <v>90301</v>
       </c>
       <c r="B174" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C174">
         <v>53</v>
@@ -4680,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="E174" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F174">
         <v>9</v>
@@ -4694,7 +4894,7 @@
         <v>90302</v>
       </c>
       <c r="B175" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C175">
         <v>54</v>
@@ -4703,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F175">
         <v>9</v>
@@ -4717,7 +4917,7 @@
         <v>90303</v>
       </c>
       <c r="B176" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C176">
         <v>55</v>
@@ -4726,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="F176">
         <v>9</v>
@@ -4740,7 +4940,7 @@
         <v>90304</v>
       </c>
       <c r="B177" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C177">
         <v>56</v>
@@ -4749,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="F177">
         <v>9</v>
@@ -4763,7 +4963,7 @@
         <v>90305</v>
       </c>
       <c r="B178" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C178">
         <v>57</v>
@@ -4772,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F178">
         <v>9</v>
@@ -4786,7 +4986,7 @@
         <v>90306</v>
       </c>
       <c r="B179" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C179">
         <v>58</v>
@@ -4795,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F179">
         <v>9</v>
@@ -4809,7 +5009,7 @@
         <v>90307</v>
       </c>
       <c r="B180" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C180">
         <v>59</v>
@@ -4818,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F180">
         <v>9</v>
@@ -4832,7 +5032,7 @@
         <v>90308</v>
       </c>
       <c r="B181" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C181">
         <v>60</v>
@@ -4841,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F181">
         <v>9</v>
@@ -4855,7 +5055,7 @@
         <v>90311</v>
       </c>
       <c r="B182" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C182">
         <v>45</v>
@@ -4864,7 +5064,7 @@
         <v>3</v>
       </c>
       <c r="E182" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="F182">
         <v>9</v>
@@ -4878,7 +5078,7 @@
         <v>90313</v>
       </c>
       <c r="B183" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C183">
         <v>47</v>
@@ -4887,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F183">
         <v>9</v>
@@ -4901,7 +5101,7 @@
         <v>90315</v>
       </c>
       <c r="B184" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C184">
         <v>49</v>
@@ -4910,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F184">
         <v>9</v>
@@ -4924,7 +5124,7 @@
         <v>90317</v>
       </c>
       <c r="B185" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C185">
         <v>51</v>
@@ -4933,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F185">
         <v>9</v>
@@ -4947,7 +5147,7 @@
         <v>100301</v>
       </c>
       <c r="B186" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C186">
         <v>53</v>
@@ -4956,7 +5156,7 @@
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F186">
         <v>10</v>
@@ -4970,7 +5170,7 @@
         <v>100302</v>
       </c>
       <c r="B187" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C187">
         <v>54</v>
@@ -4979,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="F187">
         <v>10</v>
@@ -4993,7 +5193,7 @@
         <v>100303</v>
       </c>
       <c r="B188" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C188">
         <v>55</v>
@@ -5002,7 +5202,7 @@
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="F188">
         <v>10</v>
@@ -5016,7 +5216,7 @@
         <v>100304</v>
       </c>
       <c r="B189" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C189">
         <v>56</v>
@@ -5025,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="F189">
         <v>10</v>
@@ -5039,7 +5239,7 @@
         <v>100305</v>
       </c>
       <c r="B190" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C190">
         <v>57</v>
@@ -5048,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="E190" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F190">
         <v>10</v>
@@ -5062,7 +5262,7 @@
         <v>100306</v>
       </c>
       <c r="B191" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C191">
         <v>58</v>
@@ -5071,7 +5271,7 @@
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F191">
         <v>10</v>
@@ -5085,7 +5285,7 @@
         <v>100307</v>
       </c>
       <c r="B192" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C192">
         <v>59</v>
@@ -5094,7 +5294,7 @@
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F192">
         <v>10</v>
@@ -5108,7 +5308,7 @@
         <v>100308</v>
       </c>
       <c r="B193" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C193">
         <v>60</v>
@@ -5117,7 +5317,7 @@
         <v>3</v>
       </c>
       <c r="E193" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F193">
         <v>10</v>
@@ -5131,7 +5331,7 @@
         <v>50411</v>
       </c>
       <c r="B194" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C194">
         <v>65</v>
@@ -5140,7 +5340,7 @@
         <v>4</v>
       </c>
       <c r="E194" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F194">
         <v>5</v>
@@ -5154,7 +5354,7 @@
         <v>50412</v>
       </c>
       <c r="B195" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C195">
         <v>66</v>
@@ -5163,7 +5363,7 @@
         <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="F195">
         <v>5</v>
@@ -5177,7 +5377,7 @@
         <v>50413</v>
       </c>
       <c r="B196" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C196">
         <v>67</v>
@@ -5186,7 +5386,7 @@
         <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F196">
         <v>5</v>
@@ -5200,7 +5400,7 @@
         <v>50414</v>
       </c>
       <c r="B197" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C197">
         <v>68</v>
@@ -5209,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="E197" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="F197">
         <v>5</v>
@@ -5223,7 +5423,7 @@
         <v>50415</v>
       </c>
       <c r="B198" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C198">
         <v>69</v>
@@ -5232,7 +5432,7 @@
         <v>4</v>
       </c>
       <c r="E198" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F198">
         <v>5</v>
@@ -5246,7 +5446,7 @@
         <v>50416</v>
       </c>
       <c r="B199" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C199">
         <v>70</v>
@@ -5255,7 +5455,7 @@
         <v>4</v>
       </c>
       <c r="E199" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="F199">
         <v>5</v>
@@ -5269,7 +5469,7 @@
         <v>50417</v>
       </c>
       <c r="B200" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C200">
         <v>71</v>
@@ -5278,7 +5478,7 @@
         <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="F200">
         <v>5</v>
@@ -5292,7 +5492,7 @@
         <v>50418</v>
       </c>
       <c r="B201" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C201">
         <v>72</v>
@@ -5301,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="F201">
         <v>5</v>
@@ -5315,7 +5515,7 @@
         <v>60401</v>
       </c>
       <c r="B202" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C202">
         <v>73</v>
@@ -5324,7 +5524,7 @@
         <v>4</v>
       </c>
       <c r="E202" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="F202">
         <v>6</v>
@@ -5338,7 +5538,7 @@
         <v>60402</v>
       </c>
       <c r="B203" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C203">
         <v>74</v>
@@ -5347,7 +5547,7 @@
         <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="F203">
         <v>6</v>
@@ -5361,7 +5561,7 @@
         <v>60403</v>
       </c>
       <c r="B204" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C204">
         <v>75</v>
@@ -5370,7 +5570,7 @@
         <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="F204">
         <v>6</v>
@@ -5384,7 +5584,7 @@
         <v>60404</v>
       </c>
       <c r="B205" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C205">
         <v>76</v>
@@ -5393,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="E205" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="F205">
         <v>6</v>
@@ -5407,7 +5607,7 @@
         <v>60405</v>
       </c>
       <c r="B206" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C206">
         <v>77</v>
@@ -5416,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="E206" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F206">
         <v>6</v>
@@ -5430,7 +5630,7 @@
         <v>60406</v>
       </c>
       <c r="B207" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C207">
         <v>78</v>
@@ -5439,7 +5639,7 @@
         <v>4</v>
       </c>
       <c r="E207" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F207">
         <v>6</v>
@@ -5453,7 +5653,7 @@
         <v>60407</v>
       </c>
       <c r="B208" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C208">
         <v>79</v>
@@ -5462,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F208">
         <v>6</v>
@@ -5476,7 +5676,7 @@
         <v>60408</v>
       </c>
       <c r="B209" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C209">
         <v>80</v>
@@ -5485,7 +5685,7 @@
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F209">
         <v>6</v>
@@ -5499,7 +5699,7 @@
         <v>60411</v>
       </c>
       <c r="B210" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C210">
         <v>65</v>
@@ -5508,7 +5708,7 @@
         <v>4</v>
       </c>
       <c r="E210" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F210">
         <v>6</v>
@@ -5522,7 +5722,7 @@
         <v>60413</v>
       </c>
       <c r="B211" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C211">
         <v>67</v>
@@ -5531,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F211">
         <v>6</v>
@@ -5545,7 +5745,7 @@
         <v>60415</v>
       </c>
       <c r="B212" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C212">
         <v>69</v>
@@ -5554,7 +5754,7 @@
         <v>4</v>
       </c>
       <c r="E212" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F212">
         <v>6</v>
@@ -5568,7 +5768,7 @@
         <v>60417</v>
       </c>
       <c r="B213" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C213">
         <v>71</v>
@@ -5577,7 +5777,7 @@
         <v>4</v>
       </c>
       <c r="E213" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="F213">
         <v>6</v>
@@ -5591,7 +5791,7 @@
         <v>70401</v>
       </c>
       <c r="B214" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C214">
         <v>73</v>
@@ -5600,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="E214" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="F214">
         <v>7</v>
@@ -5614,7 +5814,7 @@
         <v>70402</v>
       </c>
       <c r="B215" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C215">
         <v>74</v>
@@ -5623,7 +5823,7 @@
         <v>4</v>
       </c>
       <c r="E215" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="F215">
         <v>7</v>
@@ -5637,7 +5837,7 @@
         <v>70403</v>
       </c>
       <c r="B216" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C216">
         <v>75</v>
@@ -5646,7 +5846,7 @@
         <v>4</v>
       </c>
       <c r="E216" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="F216">
         <v>7</v>
@@ -5660,7 +5860,7 @@
         <v>70404</v>
       </c>
       <c r="B217" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C217">
         <v>76</v>
@@ -5669,7 +5869,7 @@
         <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="F217">
         <v>7</v>
@@ -5683,7 +5883,7 @@
         <v>70405</v>
       </c>
       <c r="B218" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C218">
         <v>77</v>
@@ -5692,7 +5892,7 @@
         <v>4</v>
       </c>
       <c r="E218" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F218">
         <v>7</v>
@@ -5706,7 +5906,7 @@
         <v>70406</v>
       </c>
       <c r="B219" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C219">
         <v>78</v>
@@ -5715,7 +5915,7 @@
         <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F219">
         <v>7</v>
@@ -5729,7 +5929,7 @@
         <v>70407</v>
       </c>
       <c r="B220" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C220">
         <v>79</v>
@@ -5738,7 +5938,7 @@
         <v>4</v>
       </c>
       <c r="E220" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F220">
         <v>7</v>
@@ -5752,7 +5952,7 @@
         <v>70408</v>
       </c>
       <c r="B221" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C221">
         <v>80</v>
@@ -5761,7 +5961,7 @@
         <v>4</v>
       </c>
       <c r="E221" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F221">
         <v>7</v>
@@ -5775,7 +5975,7 @@
         <v>70411</v>
       </c>
       <c r="B222" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C222">
         <v>65</v>
@@ -5784,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="E222" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F222">
         <v>7</v>
@@ -5798,7 +5998,7 @@
         <v>70413</v>
       </c>
       <c r="B223" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C223">
         <v>67</v>
@@ -5807,7 +6007,7 @@
         <v>4</v>
       </c>
       <c r="E223" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F223">
         <v>7</v>
@@ -5821,7 +6021,7 @@
         <v>70415</v>
       </c>
       <c r="B224" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C224">
         <v>69</v>
@@ -5830,7 +6030,7 @@
         <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F224">
         <v>7</v>
@@ -5844,7 +6044,7 @@
         <v>70417</v>
       </c>
       <c r="B225" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C225">
         <v>71</v>
@@ -5853,7 +6053,7 @@
         <v>4</v>
       </c>
       <c r="E225" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="F225">
         <v>7</v>
@@ -5867,7 +6067,7 @@
         <v>80401</v>
       </c>
       <c r="B226" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C226">
         <v>73</v>
@@ -5876,7 +6076,7 @@
         <v>4</v>
       </c>
       <c r="E226" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="F226">
         <v>8</v>
@@ -5890,7 +6090,7 @@
         <v>80402</v>
       </c>
       <c r="B227" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C227">
         <v>74</v>
@@ -5899,7 +6099,7 @@
         <v>4</v>
       </c>
       <c r="E227" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="F227">
         <v>8</v>
@@ -5913,7 +6113,7 @@
         <v>80403</v>
       </c>
       <c r="B228" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C228">
         <v>75</v>
@@ -5922,7 +6122,7 @@
         <v>4</v>
       </c>
       <c r="E228" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="F228">
         <v>8</v>
@@ -5936,7 +6136,7 @@
         <v>80404</v>
       </c>
       <c r="B229" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C229">
         <v>76</v>
@@ -5945,7 +6145,7 @@
         <v>4</v>
       </c>
       <c r="E229" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="F229">
         <v>8</v>
@@ -5959,7 +6159,7 @@
         <v>80405</v>
       </c>
       <c r="B230" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C230">
         <v>77</v>
@@ -5968,7 +6168,7 @@
         <v>4</v>
       </c>
       <c r="E230" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F230">
         <v>8</v>
@@ -5982,7 +6182,7 @@
         <v>80406</v>
       </c>
       <c r="B231" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C231">
         <v>78</v>
@@ -5991,7 +6191,7 @@
         <v>4</v>
       </c>
       <c r="E231" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F231">
         <v>8</v>
@@ -6005,7 +6205,7 @@
         <v>80407</v>
       </c>
       <c r="B232" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C232">
         <v>79</v>
@@ -6014,7 +6214,7 @@
         <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F232">
         <v>8</v>
@@ -6028,7 +6228,7 @@
         <v>80408</v>
       </c>
       <c r="B233" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C233">
         <v>80</v>
@@ -6037,7 +6237,7 @@
         <v>4</v>
       </c>
       <c r="E233" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F233">
         <v>8</v>
@@ -6051,7 +6251,7 @@
         <v>80411</v>
       </c>
       <c r="B234" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C234">
         <v>65</v>
@@ -6060,7 +6260,7 @@
         <v>4</v>
       </c>
       <c r="E234" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F234">
         <v>8</v>
@@ -6074,7 +6274,7 @@
         <v>80413</v>
       </c>
       <c r="B235" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C235">
         <v>67</v>
@@ -6083,7 +6283,7 @@
         <v>4</v>
       </c>
       <c r="E235" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F235">
         <v>8</v>
@@ -6097,7 +6297,7 @@
         <v>80415</v>
       </c>
       <c r="B236" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C236">
         <v>69</v>
@@ -6106,7 +6306,7 @@
         <v>4</v>
       </c>
       <c r="E236" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F236">
         <v>8</v>
@@ -6120,7 +6320,7 @@
         <v>80417</v>
       </c>
       <c r="B237" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C237">
         <v>71</v>
@@ -6129,7 +6329,7 @@
         <v>4</v>
       </c>
       <c r="E237" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="F237">
         <v>8</v>
@@ -6143,7 +6343,7 @@
         <v>90401</v>
       </c>
       <c r="B238" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C238">
         <v>73</v>
@@ -6152,7 +6352,7 @@
         <v>4</v>
       </c>
       <c r="E238" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="F238">
         <v>9</v>
@@ -6166,7 +6366,7 @@
         <v>90402</v>
       </c>
       <c r="B239" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C239">
         <v>74</v>
@@ -6175,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="E239" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="F239">
         <v>9</v>
@@ -6189,7 +6389,7 @@
         <v>90403</v>
       </c>
       <c r="B240" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C240">
         <v>75</v>
@@ -6198,7 +6398,7 @@
         <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="F240">
         <v>9</v>
@@ -6212,7 +6412,7 @@
         <v>90404</v>
       </c>
       <c r="B241" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C241">
         <v>76</v>
@@ -6221,7 +6421,7 @@
         <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="F241">
         <v>9</v>
@@ -6235,7 +6435,7 @@
         <v>90405</v>
       </c>
       <c r="B242" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C242">
         <v>77</v>
@@ -6244,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="E242" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F242">
         <v>9</v>
@@ -6258,7 +6458,7 @@
         <v>90406</v>
       </c>
       <c r="B243" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C243">
         <v>78</v>
@@ -6267,7 +6467,7 @@
         <v>4</v>
       </c>
       <c r="E243" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F243">
         <v>9</v>
@@ -6281,7 +6481,7 @@
         <v>90407</v>
       </c>
       <c r="B244" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C244">
         <v>79</v>
@@ -6290,7 +6490,7 @@
         <v>4</v>
       </c>
       <c r="E244" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F244">
         <v>9</v>
@@ -6304,7 +6504,7 @@
         <v>90408</v>
       </c>
       <c r="B245" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C245">
         <v>80</v>
@@ -6313,7 +6513,7 @@
         <v>4</v>
       </c>
       <c r="E245" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F245">
         <v>9</v>
@@ -6327,7 +6527,7 @@
         <v>90411</v>
       </c>
       <c r="B246" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C246">
         <v>65</v>
@@ -6336,7 +6536,7 @@
         <v>4</v>
       </c>
       <c r="E246" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F246">
         <v>9</v>
@@ -6350,7 +6550,7 @@
         <v>90413</v>
       </c>
       <c r="B247" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C247">
         <v>67</v>
@@ -6359,7 +6559,7 @@
         <v>4</v>
       </c>
       <c r="E247" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F247">
         <v>9</v>
@@ -6373,7 +6573,7 @@
         <v>90415</v>
       </c>
       <c r="B248" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C248">
         <v>69</v>
@@ -6382,7 +6582,7 @@
         <v>4</v>
       </c>
       <c r="E248" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F248">
         <v>9</v>
@@ -6396,7 +6596,7 @@
         <v>90417</v>
       </c>
       <c r="B249" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C249">
         <v>71</v>
@@ -6405,7 +6605,7 @@
         <v>4</v>
       </c>
       <c r="E249" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="F249">
         <v>9</v>
@@ -6419,7 +6619,7 @@
         <v>100401</v>
       </c>
       <c r="B250" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C250">
         <v>73</v>
@@ -6428,7 +6628,7 @@
         <v>4</v>
       </c>
       <c r="E250" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="F250">
         <v>10</v>
@@ -6442,7 +6642,7 @@
         <v>100402</v>
       </c>
       <c r="B251" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C251">
         <v>74</v>
@@ -6451,7 +6651,7 @@
         <v>4</v>
       </c>
       <c r="E251" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="F251">
         <v>10</v>
@@ -6465,7 +6665,7 @@
         <v>100403</v>
       </c>
       <c r="B252" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C252">
         <v>75</v>
@@ -6474,7 +6674,7 @@
         <v>4</v>
       </c>
       <c r="E252" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="F252">
         <v>10</v>
@@ -6488,7 +6688,7 @@
         <v>100404</v>
       </c>
       <c r="B253" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C253">
         <v>76</v>
@@ -6497,7 +6697,7 @@
         <v>4</v>
       </c>
       <c r="E253" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="F253">
         <v>10</v>
@@ -6511,7 +6711,7 @@
         <v>100405</v>
       </c>
       <c r="B254" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C254">
         <v>77</v>
@@ -6520,7 +6720,7 @@
         <v>4</v>
       </c>
       <c r="E254" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F254">
         <v>10</v>
@@ -6534,7 +6734,7 @@
         <v>100406</v>
       </c>
       <c r="B255" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C255">
         <v>78</v>
@@ -6543,7 +6743,7 @@
         <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="F255">
         <v>10</v>
@@ -6557,7 +6757,7 @@
         <v>100407</v>
       </c>
       <c r="B256" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C256">
         <v>79</v>
@@ -6566,7 +6766,7 @@
         <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F256">
         <v>10</v>
@@ -6580,7 +6780,7 @@
         <v>100408</v>
       </c>
       <c r="B257" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C257">
         <v>80</v>
@@ -6589,7 +6789,7 @@
         <v>4</v>
       </c>
       <c r="E257" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F257">
         <v>10</v>
@@ -6601,5 +6801,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/delete1/compoundData.xlsx
+++ b/delete1/compoundData.xlsx
@@ -882,7 +882,7 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2114,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2137,7 +2137,7 @@
         <v>9</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2160,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>13</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="C59">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2252,7 +2252,7 @@
         <v>17</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>18</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="C62">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2321,7 +2321,7 @@
         <v>20</v>
       </c>
       <c r="C63">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         <v>21</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>22</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>23</v>
       </c>
       <c r="C118">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -3609,7 +3609,7 @@
         <v>25</v>
       </c>
       <c r="C119">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -3632,7 +3632,7 @@
         <v>27</v>
       </c>
       <c r="C120">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -3655,7 +3655,7 @@
         <v>28</v>
       </c>
       <c r="C121">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -3678,7 +3678,7 @@
         <v>30</v>
       </c>
       <c r="C122">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -3701,7 +3701,7 @@
         <v>31</v>
       </c>
       <c r="C123">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -3724,7 +3724,7 @@
         <v>32</v>
       </c>
       <c r="C124">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -3747,7 +3747,7 @@
         <v>33</v>
       </c>
       <c r="C125">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>34</v>
       </c>
       <c r="C126">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -3793,7 +3793,7 @@
         <v>35</v>
       </c>
       <c r="C127">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -3816,7 +3816,7 @@
         <v>36</v>
       </c>
       <c r="C128">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -3839,7 +3839,7 @@
         <v>37</v>
       </c>
       <c r="C129">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -5058,7 +5058,7 @@
         <v>38</v>
       </c>
       <c r="C182">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="D182">
         <v>3</v>
@@ -5081,7 +5081,7 @@
         <v>39</v>
       </c>
       <c r="C183">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="D183">
         <v>3</v>
@@ -5104,7 +5104,7 @@
         <v>40</v>
       </c>
       <c r="C184">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -5127,7 +5127,7 @@
         <v>41</v>
       </c>
       <c r="C185">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -5150,7 +5150,7 @@
         <v>50</v>
       </c>
       <c r="C186">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="D186">
         <v>3</v>
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="C187">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -5196,7 +5196,7 @@
         <v>52</v>
       </c>
       <c r="C188">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -5219,7 +5219,7 @@
         <v>53</v>
       </c>
       <c r="C189">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -5242,7 +5242,7 @@
         <v>54</v>
       </c>
       <c r="C190">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>55</v>
       </c>
       <c r="C191">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="D191">
         <v>3</v>
@@ -5288,7 +5288,7 @@
         <v>56</v>
       </c>
       <c r="C192">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -5311,7 +5311,7 @@
         <v>57</v>
       </c>
       <c r="C193">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -6530,7 +6530,7 @@
         <v>58</v>
       </c>
       <c r="C246">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="D246">
         <v>4</v>
@@ -6553,7 +6553,7 @@
         <v>60</v>
       </c>
       <c r="C247">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="D247">
         <v>4</v>
@@ -6576,7 +6576,7 @@
         <v>62</v>
       </c>
       <c r="C248">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="D248">
         <v>4</v>
@@ -6599,7 +6599,7 @@
         <v>64</v>
       </c>
       <c r="C249">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="D249">
         <v>4</v>
@@ -6622,7 +6622,7 @@
         <v>66</v>
       </c>
       <c r="C250">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="D250">
         <v>4</v>
@@ -6645,7 +6645,7 @@
         <v>67</v>
       </c>
       <c r="C251">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="D251">
         <v>4</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="C252">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="D252">
         <v>4</v>
@@ -6691,7 +6691,7 @@
         <v>69</v>
       </c>
       <c r="C253">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="D253">
         <v>4</v>
@@ -6714,7 +6714,7 @@
         <v>70</v>
       </c>
       <c r="C254">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="D254">
         <v>4</v>
@@ -6737,7 +6737,7 @@
         <v>71</v>
       </c>
       <c r="C255">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="D255">
         <v>4</v>
@@ -6760,7 +6760,7 @@
         <v>72</v>
       </c>
       <c r="C256">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="D256">
         <v>4</v>
@@ -6783,7 +6783,7 @@
         <v>73</v>
       </c>
       <c r="C257">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="D257">
         <v>4</v>
